--- a/Report/Fish_Annual_Tamplate.xlsx
+++ b/Report/Fish_Annual_Tamplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DCX\FIMS\FIMS_ANNUAL_REPORT\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DCX\FIMS\25_08_2025_Anual_Report_10_08_am\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E2EAE4-4A17-4495-A979-0B675B94198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68062881-F1F4-495C-8194-A9048CEAD12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="601" firstSheet="17" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="601" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C-M-A" sheetId="48" state="hidden" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="666">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -6400,6 +6400,48 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6409,49 +6451,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6466,30 +6490,6 @@
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6541,6 +6541,39 @@
     <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6550,48 +6583,15 @@
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="101" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6631,6 +6631,21 @@
     <xf numFmtId="0" fontId="101" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6640,21 +6655,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6712,29 +6712,53 @@
     <xf numFmtId="0" fontId="29" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6745,63 +6769,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6829,6 +6829,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6844,23 +6847,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6877,9 +6880,6 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6931,14 +6931,20 @@
     <xf numFmtId="0" fontId="51" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6952,12 +6958,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6979,6 +6979,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7003,9 +7006,6 @@
     <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7051,6 +7051,12 @@
     <xf numFmtId="0" fontId="102" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7066,117 +7072,111 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7228,6 +7228,24 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="125" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7256,24 +7274,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="108" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8188,61 +8188,61 @@
       <c r="C2" s="256"/>
       <c r="D2" s="256"/>
       <c r="E2" s="256"/>
-      <c r="F2" s="962" t="s">
+      <c r="F2" s="970" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="962"/>
-      <c r="H2" s="962"/>
+      <c r="G2" s="970"/>
+      <c r="H2" s="970"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1">
-      <c r="A3" s="961" t="s">
+      <c r="A3" s="957" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="961"/>
-      <c r="C3" s="961"/>
-      <c r="D3" s="961"/>
+      <c r="B3" s="957"/>
+      <c r="C3" s="957"/>
+      <c r="D3" s="957"/>
       <c r="E3" s="257"/>
-      <c r="F3" s="963" t="s">
+      <c r="F3" s="971" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="963"/>
-      <c r="H3" s="963"/>
+      <c r="G3" s="971"/>
+      <c r="H3" s="971"/>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1">
-      <c r="A4" s="968" t="s">
+      <c r="A4" s="964" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="968"/>
-      <c r="C4" s="968"/>
-      <c r="D4" s="968"/>
+      <c r="B4" s="964"/>
+      <c r="C4" s="964"/>
+      <c r="D4" s="964"/>
       <c r="E4" s="259"/>
-      <c r="F4" s="965">
+      <c r="F4" s="973">
         <v>3</v>
       </c>
-      <c r="G4" s="965"/>
-      <c r="H4" s="965"/>
+      <c r="G4" s="973"/>
+      <c r="H4" s="973"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="961" t="s">
+      <c r="A5" s="957" t="s">
         <v>506</v>
       </c>
-      <c r="B5" s="961"/>
-      <c r="C5" s="961"/>
-      <c r="D5" s="961"/>
-      <c r="E5" s="961"/>
-      <c r="F5" s="961"/>
-      <c r="G5" s="961"/>
-      <c r="H5" s="961"/>
+      <c r="B5" s="957"/>
+      <c r="C5" s="957"/>
+      <c r="D5" s="957"/>
+      <c r="E5" s="957"/>
+      <c r="F5" s="957"/>
+      <c r="G5" s="957"/>
+      <c r="H5" s="957"/>
     </row>
     <row r="6" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A6" s="961"/>
-      <c r="B6" s="961"/>
-      <c r="C6" s="961"/>
-      <c r="D6" s="961"/>
-      <c r="E6" s="961"/>
-      <c r="F6" s="961"/>
-      <c r="G6" s="961"/>
-      <c r="H6" s="961"/>
+      <c r="A6" s="957"/>
+      <c r="B6" s="957"/>
+      <c r="C6" s="957"/>
+      <c r="D6" s="957"/>
+      <c r="E6" s="957"/>
+      <c r="F6" s="957"/>
+      <c r="G6" s="957"/>
+      <c r="H6" s="957"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="261"/>
@@ -8250,14 +8250,14 @@
       <c r="C7" s="261"/>
       <c r="D7" s="262"/>
       <c r="E7" s="261"/>
-      <c r="F7" s="1005" t="s">
+      <c r="F7" s="1007" t="s">
         <v>623</v>
       </c>
-      <c r="G7" s="1005"/>
-      <c r="H7" s="1005"/>
+      <c r="G7" s="1007"/>
+      <c r="H7" s="1007"/>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1">
-      <c r="A8" s="970" t="s">
+      <c r="A8" s="966" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="263" t="s">
@@ -8272,16 +8272,16 @@
       <c r="E8" s="264" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="972" t="s">
+      <c r="F8" s="968" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="973"/>
+      <c r="G8" s="969"/>
       <c r="H8" s="266" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1">
-      <c r="A9" s="971"/>
+      <c r="A9" s="967"/>
       <c r="B9" s="267" t="s">
         <v>13</v>
       </c>
@@ -8387,10 +8387,10 @@
       <c r="H13" s="280"/>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1" thickBot="1">
-      <c r="A14" s="1006" t="s">
+      <c r="A14" s="1005" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1007"/>
+      <c r="B14" s="1006"/>
       <c r="C14" s="809">
         <f>SUM(C11:C13)</f>
         <v>0</v>
@@ -8417,17 +8417,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8464,39 +8464,39 @@
       <c r="B1" s="287"/>
       <c r="C1" s="287"/>
       <c r="E1" s="363"/>
-      <c r="F1" s="991" t="s">
+      <c r="F1" s="1002" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="991"/>
-      <c r="H1" s="991"/>
+      <c r="G1" s="1002"/>
+      <c r="H1" s="1002"/>
     </row>
     <row r="2" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A2" s="961" t="s">
+      <c r="A2" s="957" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="961"/>
-      <c r="C2" s="961"/>
-      <c r="D2" s="961"/>
+      <c r="B2" s="957"/>
+      <c r="C2" s="957"/>
+      <c r="D2" s="957"/>
       <c r="E2" s="258"/>
-      <c r="F2" s="963" t="s">
+      <c r="F2" s="971" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="963"/>
-      <c r="H2" s="963"/>
+      <c r="G2" s="971"/>
+      <c r="H2" s="971"/>
     </row>
     <row r="3" spans="1:8" ht="30.65" customHeight="1">
-      <c r="A3" s="961" t="s">
+      <c r="A3" s="957" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="961"/>
-      <c r="C3" s="961"/>
-      <c r="D3" s="961"/>
+      <c r="B3" s="957"/>
+      <c r="C3" s="957"/>
+      <c r="D3" s="957"/>
       <c r="E3" s="364"/>
-      <c r="F3" s="965">
+      <c r="F3" s="973">
         <v>3</v>
       </c>
-      <c r="G3" s="965"/>
-      <c r="H3" s="965"/>
+      <c r="G3" s="973"/>
+      <c r="H3" s="973"/>
     </row>
     <row r="4" spans="1:8" ht="31.4" customHeight="1">
       <c r="A4" s="940" t="s">
@@ -8511,16 +8511,16 @@
       <c r="H4" s="940"/>
     </row>
     <row r="5" spans="1:8" ht="29.15" customHeight="1">
-      <c r="A5" s="961" t="s">
+      <c r="A5" s="957" t="s">
         <v>507</v>
       </c>
-      <c r="B5" s="961"/>
-      <c r="C5" s="961"/>
-      <c r="D5" s="961"/>
-      <c r="E5" s="961"/>
-      <c r="F5" s="961"/>
-      <c r="G5" s="961"/>
-      <c r="H5" s="961"/>
+      <c r="B5" s="957"/>
+      <c r="C5" s="957"/>
+      <c r="D5" s="957"/>
+      <c r="E5" s="957"/>
+      <c r="F5" s="957"/>
+      <c r="G5" s="957"/>
+      <c r="H5" s="957"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A6" s="261"/>
@@ -9159,11 +9159,11 @@
       <c r="B1" s="287"/>
       <c r="C1" s="287"/>
       <c r="E1" s="363"/>
-      <c r="F1" s="991" t="s">
+      <c r="F1" s="1002" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="991"/>
-      <c r="H1" s="991"/>
+      <c r="G1" s="1002"/>
+      <c r="H1" s="1002"/>
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
@@ -9174,19 +9174,19 @@
       <c r="C2" s="1016"/>
       <c r="D2" s="1016"/>
       <c r="E2" s="258"/>
-      <c r="F2" s="963" t="s">
+      <c r="F2" s="971" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="963"/>
-      <c r="H2" s="963"/>
+      <c r="G2" s="971"/>
+      <c r="H2" s="971"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A3" s="963" t="s">
+      <c r="A3" s="971" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="963"/>
-      <c r="C3" s="963"/>
+      <c r="B3" s="971"/>
+      <c r="C3" s="971"/>
       <c r="E3" s="364"/>
       <c r="F3" s="1015">
         <v>3</v>
@@ -9207,16 +9207,16 @@
       <c r="H4" s="940"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A5" s="961" t="s">
+      <c r="A5" s="957" t="s">
         <v>390</v>
       </c>
-      <c r="B5" s="961"/>
-      <c r="C5" s="961"/>
-      <c r="D5" s="961"/>
-      <c r="E5" s="961"/>
-      <c r="F5" s="961"/>
-      <c r="G5" s="961"/>
-      <c r="H5" s="961"/>
+      <c r="B5" s="957"/>
+      <c r="C5" s="957"/>
+      <c r="D5" s="957"/>
+      <c r="E5" s="957"/>
+      <c r="F5" s="957"/>
+      <c r="G5" s="957"/>
+      <c r="H5" s="957"/>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" thickBot="1">
       <c r="A6" s="261"/>
@@ -9994,13 +9994,13 @@
       <c r="A1" s="287"/>
       <c r="B1" s="287"/>
       <c r="C1" s="287"/>
-      <c r="D1" s="991" t="s">
+      <c r="D1" s="1002" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="991"/>
-      <c r="F1" s="991"/>
-      <c r="G1" s="991"/>
-      <c r="H1" s="991"/>
+      <c r="E1" s="1002"/>
+      <c r="F1" s="1002"/>
+      <c r="G1" s="1002"/>
+      <c r="H1" s="1002"/>
       <c r="I1" s="347"/>
       <c r="J1" s="347"/>
       <c r="K1" s="246"/>
@@ -10013,13 +10013,13 @@
       </c>
       <c r="B2" s="943"/>
       <c r="C2" s="943"/>
-      <c r="D2" s="963" t="s">
+      <c r="D2" s="971" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="963"/>
-      <c r="F2" s="963"/>
-      <c r="G2" s="963"/>
-      <c r="H2" s="963"/>
+      <c r="E2" s="971"/>
+      <c r="F2" s="971"/>
+      <c r="G2" s="971"/>
+      <c r="H2" s="971"/>
       <c r="I2" s="346"/>
       <c r="J2" s="346"/>
       <c r="K2" s="244"/>
@@ -10027,11 +10027,11 @@
       <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A3" s="963" t="s">
+      <c r="A3" s="971" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="963"/>
-      <c r="C3" s="963"/>
+      <c r="B3" s="971"/>
+      <c r="C3" s="971"/>
       <c r="D3" s="1015">
         <v>3</v>
       </c>
@@ -10060,16 +10060,16 @@
       <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A5" s="968" t="s">
+      <c r="A5" s="964" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="968"/>
-      <c r="C5" s="968"/>
-      <c r="D5" s="968"/>
-      <c r="E5" s="968"/>
-      <c r="F5" s="968"/>
-      <c r="G5" s="968"/>
-      <c r="H5" s="968"/>
+      <c r="B5" s="964"/>
+      <c r="C5" s="964"/>
+      <c r="D5" s="964"/>
+      <c r="E5" s="964"/>
+      <c r="F5" s="964"/>
+      <c r="G5" s="964"/>
+      <c r="H5" s="964"/>
       <c r="I5" s="345"/>
       <c r="J5" s="345"/>
     </row>
@@ -10995,10 +10995,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33">
-      <c r="A3" s="963" t="s">
+      <c r="A3" s="971" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="963"/>
+      <c r="B3" s="971"/>
       <c r="D3" s="682">
         <v>3</v>
       </c>
@@ -12127,39 +12127,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1">
       <c r="E1" s="246"/>
-      <c r="F1" s="944" t="s">
+      <c r="F1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="944"/>
-      <c r="H1" s="944"/>
+      <c r="G1" s="958"/>
+      <c r="H1" s="958"/>
     </row>
     <row r="2" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A2" s="1021" t="s">
+      <c r="A2" s="1026" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1021"/>
-      <c r="C2" s="1021"/>
-      <c r="D2" s="1021"/>
+      <c r="B2" s="1026"/>
+      <c r="C2" s="1026"/>
+      <c r="D2" s="1026"/>
       <c r="E2" s="244"/>
-      <c r="F2" s="946" t="s">
+      <c r="F2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="946"/>
-      <c r="H2" s="946"/>
+      <c r="G2" s="960"/>
+      <c r="H2" s="960"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="952" t="s">
+      <c r="A3" s="948" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="952"/>
-      <c r="C3" s="952"/>
-      <c r="D3" s="952"/>
+      <c r="B3" s="948"/>
+      <c r="C3" s="948"/>
+      <c r="D3" s="948"/>
       <c r="E3" s="247"/>
-      <c r="F3" s="1026">
+      <c r="F3" s="1023">
         <v>3</v>
       </c>
-      <c r="G3" s="1026"/>
-      <c r="H3" s="1026"/>
+      <c r="G3" s="1023"/>
+      <c r="H3" s="1023"/>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1">
       <c r="A4" s="18"/>
@@ -12169,28 +12169,28 @@
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A5" s="952" t="s">
+      <c r="A5" s="948" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="952"/>
-      <c r="C5" s="952"/>
-      <c r="D5" s="952"/>
-      <c r="E5" s="952"/>
-      <c r="F5" s="952"/>
-      <c r="G5" s="952"/>
-      <c r="H5" s="952"/>
+      <c r="B5" s="948"/>
+      <c r="C5" s="948"/>
+      <c r="D5" s="948"/>
+      <c r="E5" s="948"/>
+      <c r="F5" s="948"/>
+      <c r="G5" s="948"/>
+      <c r="H5" s="948"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="952" t="s">
+      <c r="A6" s="948" t="s">
         <v>589</v>
       </c>
-      <c r="B6" s="952"/>
-      <c r="C6" s="952"/>
-      <c r="D6" s="952"/>
-      <c r="E6" s="952"/>
-      <c r="F6" s="952"/>
-      <c r="G6" s="952"/>
-      <c r="H6" s="952"/>
+      <c r="B6" s="948"/>
+      <c r="C6" s="948"/>
+      <c r="D6" s="948"/>
+      <c r="E6" s="948"/>
+      <c r="F6" s="948"/>
+      <c r="G6" s="948"/>
+      <c r="H6" s="948"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="20"/>
@@ -12205,7 +12205,7 @@
       <c r="H7" s="979"/>
     </row>
     <row r="8" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A8" s="1022" t="s">
+      <c r="A8" s="1027" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="225" t="s">
@@ -12220,16 +12220,16 @@
       <c r="E8" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1027" t="s">
+      <c r="F8" s="1024" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1028"/>
+      <c r="G8" s="1025"/>
       <c r="H8" s="226" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="1023"/>
+      <c r="A9" s="1028"/>
       <c r="B9" s="227" t="s">
         <v>13</v>
       </c>
@@ -12751,10 +12751,10 @@
       <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" thickBot="1">
-      <c r="A35" s="1024" t="s">
+      <c r="A35" s="1021" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="1025"/>
+      <c r="B35" s="1022"/>
       <c r="C35" s="803">
         <f>SUM(C10:C34)</f>
         <v>0</v>
@@ -12793,17 +12793,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12849,10 +12849,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="27.5">
-      <c r="A3" s="962" t="s">
+      <c r="A3" s="970" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="962"/>
+      <c r="B3" s="970"/>
       <c r="D3" s="682">
         <v>3</v>
       </c>
@@ -13407,39 +13407,39 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="246"/>
-      <c r="F1" s="944" t="s">
+      <c r="F1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="944"/>
-      <c r="H1" s="944"/>
+      <c r="G1" s="958"/>
+      <c r="H1" s="958"/>
     </row>
     <row r="2" spans="1:8" ht="33">
-      <c r="A2" s="1021" t="s">
+      <c r="A2" s="1026" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1021"/>
-      <c r="C2" s="1021"/>
-      <c r="D2" s="1021"/>
+      <c r="B2" s="1026"/>
+      <c r="C2" s="1026"/>
+      <c r="D2" s="1026"/>
       <c r="E2" s="244"/>
-      <c r="F2" s="946" t="s">
+      <c r="F2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="946"/>
-      <c r="H2" s="946"/>
+      <c r="G2" s="960"/>
+      <c r="H2" s="960"/>
     </row>
     <row r="3" spans="1:8" ht="31.5">
-      <c r="A3" s="952" t="s">
+      <c r="A3" s="948" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="952"/>
-      <c r="C3" s="952"/>
-      <c r="D3" s="952"/>
+      <c r="B3" s="948"/>
+      <c r="C3" s="948"/>
+      <c r="D3" s="948"/>
       <c r="E3" s="247"/>
-      <c r="F3" s="1026">
+      <c r="F3" s="1023">
         <v>3</v>
       </c>
-      <c r="G3" s="1026"/>
-      <c r="H3" s="1026"/>
+      <c r="G3" s="1023"/>
+      <c r="H3" s="1023"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="947" t="s">
@@ -13598,11 +13598,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A4:H4"/>
@@ -13612,6 +13607,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.25" header="0.25" footer="0.25"/>
@@ -13626,7 +13626,7 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13642,10 +13642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="F1" s="944" t="s">
+      <c r="F1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="944"/>
+      <c r="G1" s="958"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1">
       <c r="A2" s="947" t="s">
@@ -13654,10 +13654,10 @@
       <c r="B2" s="947"/>
       <c r="C2" s="947"/>
       <c r="D2" s="947"/>
-      <c r="F2" s="946" t="s">
+      <c r="F2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="946"/>
+      <c r="G2" s="960"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1">
       <c r="A3" s="947" t="s">
@@ -13677,15 +13677,15 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="945" t="s">
+      <c r="A5" s="959" t="s">
         <v>510</v>
       </c>
-      <c r="B5" s="945"/>
-      <c r="C5" s="945"/>
-      <c r="D5" s="945"/>
-      <c r="E5" s="945"/>
-      <c r="F5" s="945"/>
-      <c r="G5" s="945"/>
+      <c r="B5" s="959"/>
+      <c r="C5" s="959"/>
+      <c r="D5" s="959"/>
+      <c r="E5" s="959"/>
+      <c r="F5" s="959"/>
+      <c r="G5" s="959"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" thickBot="1">
       <c r="F6" s="1043" t="s">
@@ -13694,7 +13694,7 @@
       <c r="G6" s="1043"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A7" s="1022" t="s">
+      <c r="A7" s="1027" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1044" t="s">
@@ -13711,7 +13711,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1">
-      <c r="A8" s="1023"/>
+      <c r="A8" s="1028"/>
       <c r="B8" s="1045"/>
       <c r="C8" s="393" t="s">
         <v>412</v>
@@ -14604,8 +14604,8 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -14621,10 +14621,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="F1" s="944" t="s">
+      <c r="F1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="944"/>
+      <c r="G1" s="958"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1">
       <c r="A2" s="947" t="s">
@@ -14633,10 +14633,10 @@
       <c r="B2" s="947"/>
       <c r="C2" s="947"/>
       <c r="D2" s="947"/>
-      <c r="F2" s="946" t="s">
+      <c r="F2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="946"/>
+      <c r="G2" s="960"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1">
       <c r="A3" s="947" t="s">
@@ -14656,15 +14656,15 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="945" t="s">
+      <c r="A5" s="959" t="s">
         <v>510</v>
       </c>
-      <c r="B5" s="945"/>
-      <c r="C5" s="945"/>
-      <c r="D5" s="945"/>
-      <c r="E5" s="945"/>
-      <c r="F5" s="945"/>
-      <c r="G5" s="945"/>
+      <c r="B5" s="959"/>
+      <c r="C5" s="959"/>
+      <c r="D5" s="959"/>
+      <c r="E5" s="959"/>
+      <c r="F5" s="959"/>
+      <c r="G5" s="959"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" thickBot="1">
       <c r="F6" s="1043" t="s">
@@ -14673,7 +14673,7 @@
       <c r="G6" s="1043"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A7" s="1022" t="s">
+      <c r="A7" s="1027" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1044" t="s">
@@ -14690,20 +14690,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1">
-      <c r="A8" s="1023"/>
+      <c r="A8" s="1028"/>
       <c r="B8" s="1045"/>
-      <c r="C8" s="393" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="393" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="393" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="393" t="s">
-        <v>39</v>
-      </c>
+      <c r="C8" s="393"/>
+      <c r="D8" s="393"/>
+      <c r="E8" s="393"/>
+      <c r="F8" s="393"/>
       <c r="G8" s="1047"/>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1">
@@ -15436,11 +15428,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="F6:G6"/>
@@ -15448,6 +15435,11 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15488,26 +15480,26 @@
       <c r="D1" s="100"/>
       <c r="E1" s="100"/>
       <c r="F1" s="101"/>
-      <c r="G1" s="944" t="s">
+      <c r="G1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="944"/>
-      <c r="I1" s="944"/>
+      <c r="H1" s="958"/>
+      <c r="I1" s="958"/>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="959" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="945"/>
+      <c r="B2" s="959"/>
       <c r="C2" s="100"/>
       <c r="D2" s="100"/>
       <c r="E2" s="100"/>
       <c r="F2" s="101"/>
-      <c r="G2" s="946" t="s">
+      <c r="G2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="946"/>
-      <c r="I2" s="946"/>
+      <c r="H2" s="960"/>
+      <c r="I2" s="960"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1">
       <c r="A3" s="947" t="s">
@@ -15520,11 +15512,11 @@
       <c r="D3" s="947"/>
       <c r="E3" s="947"/>
       <c r="F3" s="947"/>
-      <c r="G3" s="948">
+      <c r="G3" s="961">
         <v>3</v>
       </c>
-      <c r="H3" s="948"/>
-      <c r="I3" s="948"/>
+      <c r="H3" s="961"/>
+      <c r="I3" s="961"/>
     </row>
     <row r="4" spans="1:9" ht="11.25" customHeight="1" thickBot="1">
       <c r="A4" s="100"/>
@@ -15538,13 +15530,13 @@
       <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="955" t="s">
+      <c r="A5" s="951" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="957" t="s">
+      <c r="B5" s="953" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="957" t="s">
+      <c r="C5" s="953" t="s">
         <v>290</v>
       </c>
       <c r="D5" s="199" t="s">
@@ -15556,18 +15548,18 @@
       <c r="F5" s="201" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="959" t="s">
+      <c r="G5" s="955" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="960"/>
-      <c r="I5" s="949" t="s">
+      <c r="H5" s="956"/>
+      <c r="I5" s="944" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="956"/>
-      <c r="B6" s="958"/>
-      <c r="C6" s="958"/>
+      <c r="A6" s="952"/>
+      <c r="B6" s="954"/>
+      <c r="C6" s="954"/>
       <c r="D6" s="202" t="s">
         <v>292</v>
       </c>
@@ -15583,7 +15575,7 @@
       <c r="H6" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="950"/>
+      <c r="I6" s="945"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
       <c r="A7" s="102" t="s">
@@ -16561,54 +16553,54 @@
       <c r="C45" s="100"/>
       <c r="D45" s="100"/>
       <c r="E45" s="100"/>
-      <c r="F45" s="951" t="s">
+      <c r="F45" s="946" t="s">
         <v>336</v>
       </c>
-      <c r="G45" s="951"/>
-      <c r="H45" s="951"/>
-      <c r="I45" s="951"/>
+      <c r="G45" s="946"/>
+      <c r="H45" s="946"/>
+      <c r="I45" s="946"/>
     </row>
     <row r="46" spans="1:15" ht="23.15" customHeight="1">
-      <c r="A46" s="952" t="s">
+      <c r="A46" s="948" t="s">
         <v>337</v>
       </c>
-      <c r="B46" s="952"/>
-      <c r="C46" s="953" t="s">
+      <c r="B46" s="948"/>
+      <c r="C46" s="949" t="s">
         <v>350</v>
       </c>
-      <c r="D46" s="953"/>
-      <c r="E46" s="953"/>
-      <c r="F46" s="953"/>
-      <c r="G46" s="953"/>
+      <c r="D46" s="949"/>
+      <c r="E46" s="949"/>
+      <c r="F46" s="949"/>
+      <c r="G46" s="949"/>
       <c r="H46" s="222" t="s">
         <v>338</v>
       </c>
       <c r="I46" s="99"/>
     </row>
     <row r="47" spans="1:15" ht="23.15" customHeight="1">
-      <c r="A47" s="952" t="s">
+      <c r="A47" s="948" t="s">
         <v>339</v>
       </c>
-      <c r="B47" s="952"/>
-      <c r="C47" s="961" t="s">
+      <c r="B47" s="948"/>
+      <c r="C47" s="957" t="s">
         <v>340</v>
       </c>
-      <c r="D47" s="961"/>
-      <c r="E47" s="961"/>
-      <c r="F47" s="961"/>
-      <c r="G47" s="961"/>
+      <c r="D47" s="957"/>
+      <c r="E47" s="957"/>
+      <c r="F47" s="957"/>
+      <c r="G47" s="957"/>
       <c r="H47" s="99"/>
       <c r="I47" s="99"/>
     </row>
     <row r="48" spans="1:15" ht="23.15" customHeight="1">
-      <c r="A48" s="952" t="s">
+      <c r="A48" s="948" t="s">
         <v>341</v>
       </c>
-      <c r="B48" s="952"/>
+      <c r="B48" s="948"/>
       <c r="C48" s="196"/>
-      <c r="D48" s="954"/>
-      <c r="E48" s="954"/>
-      <c r="F48" s="954"/>
+      <c r="D48" s="950"/>
+      <c r="E48" s="950"/>
+      <c r="F48" s="950"/>
       <c r="G48" s="197"/>
       <c r="H48" s="99"/>
       <c r="I48" s="99"/>
@@ -16624,6 +16616,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="H50:I50"/>
@@ -16637,12 +16635,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="C47:G47"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.5" header="0.5" footer="0.5"/>
@@ -16668,37 +16660,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="D1" s="944" t="s">
+      <c r="D1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="944"/>
-      <c r="F1" s="944"/>
+      <c r="E1" s="958"/>
+      <c r="F1" s="958"/>
       <c r="G1" s="246"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A2" s="1021" t="s">
+      <c r="A2" s="1026" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1021"/>
-      <c r="C2" s="1021"/>
-      <c r="D2" s="946" t="s">
+      <c r="B2" s="1026"/>
+      <c r="C2" s="1026"/>
+      <c r="D2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="946"/>
-      <c r="F2" s="946"/>
+      <c r="E2" s="960"/>
+      <c r="F2" s="960"/>
       <c r="G2" s="244"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1">
-      <c r="A3" s="1048" t="s">
+      <c r="A3" s="1054" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1048"/>
-      <c r="C3" s="1048"/>
-      <c r="D3" s="1049">
+      <c r="B3" s="1054"/>
+      <c r="C3" s="1054"/>
+      <c r="D3" s="1055">
         <v>3</v>
       </c>
-      <c r="E3" s="1049"/>
-      <c r="F3" s="1049"/>
+      <c r="E3" s="1055"/>
+      <c r="F3" s="1055"/>
       <c r="G3" s="249"/>
     </row>
     <row r="4" spans="1:7" ht="8.25" customHeight="1">
@@ -16706,40 +16698,40 @@
       <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="952" t="s">
+      <c r="A5" s="948" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="952"/>
-      <c r="C5" s="952"/>
-      <c r="D5" s="952"/>
-      <c r="E5" s="952"/>
-      <c r="F5" s="952"/>
+      <c r="B5" s="948"/>
+      <c r="C5" s="948"/>
+      <c r="D5" s="948"/>
+      <c r="E5" s="948"/>
+      <c r="F5" s="948"/>
       <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="E6" s="1052" t="s">
+      <c r="E6" s="1050" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1052"/>
+      <c r="F6" s="1050"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A7" s="1022" t="s">
+      <c r="A7" s="1027" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1044" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1053" t="s">
+      <c r="C7" s="1051" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1053"/>
-      <c r="E7" s="1028"/>
-      <c r="F7" s="1054" t="s">
+      <c r="D7" s="1051"/>
+      <c r="E7" s="1025"/>
+      <c r="F7" s="1052" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1">
-      <c r="A8" s="1023"/>
+      <c r="A8" s="1028"/>
       <c r="B8" s="1045"/>
       <c r="C8" s="41" t="s">
         <v>43</v>
@@ -16750,7 +16742,7 @@
       <c r="E8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1055"/>
+      <c r="F8" s="1053"/>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1">
       <c r="A9" s="43">
@@ -17766,10 +17758,10 @@
       <c r="H57" s="254"/>
     </row>
     <row r="58" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A58" s="1050" t="s">
+      <c r="A58" s="1048" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="1051"/>
+      <c r="B58" s="1049"/>
       <c r="C58" s="46">
         <f>SUM(C9:C57)</f>
         <v>12829</v>
@@ -17793,6 +17785,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E6:F6"/>
@@ -17800,11 +17797,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17835,21 +17827,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1">
-      <c r="K1" s="944" t="s">
+      <c r="K1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="944"/>
-      <c r="M1" s="944"/>
-      <c r="N1" s="944"/>
+      <c r="L1" s="958"/>
+      <c r="M1" s="958"/>
+      <c r="N1" s="958"/>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1">
-      <c r="A2" s="1057" t="s">
+      <c r="A2" s="1065" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1057"/>
-      <c r="C2" s="1057"/>
-      <c r="D2" s="1057"/>
-      <c r="E2" s="1057"/>
+      <c r="B2" s="1065"/>
+      <c r="C2" s="1065"/>
+      <c r="D2" s="1065"/>
+      <c r="E2" s="1065"/>
       <c r="K2" s="977" t="s">
         <v>4</v>
       </c>
@@ -17858,49 +17850,49 @@
       <c r="N2" s="977"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A3" s="1058" t="s">
+      <c r="A3" s="1066" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="1058"/>
-      <c r="C3" s="1058"/>
-      <c r="D3" s="1058"/>
-      <c r="E3" s="1058"/>
+      <c r="B3" s="1066"/>
+      <c r="C3" s="1066"/>
+      <c r="D3" s="1066"/>
+      <c r="E3" s="1066"/>
       <c r="F3" s="250"/>
       <c r="G3" s="250"/>
       <c r="H3" s="250"/>
       <c r="I3" s="250"/>
       <c r="J3" s="250"/>
-      <c r="K3" s="948">
+      <c r="K3" s="961">
         <v>3</v>
       </c>
-      <c r="L3" s="948"/>
-      <c r="M3" s="948"/>
-      <c r="N3" s="948"/>
+      <c r="L3" s="961"/>
+      <c r="M3" s="961"/>
+      <c r="N3" s="961"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A4" s="952" t="s">
+      <c r="A4" s="948" t="s">
         <v>451</v>
       </c>
-      <c r="B4" s="1056"/>
-      <c r="C4" s="1056"/>
-      <c r="D4" s="1056"/>
-      <c r="E4" s="1056"/>
-      <c r="F4" s="1056"/>
-      <c r="G4" s="1056"/>
-      <c r="H4" s="1056"/>
-      <c r="I4" s="1056"/>
-      <c r="J4" s="1056"/>
-      <c r="K4" s="1056"/>
-      <c r="L4" s="1056"/>
-      <c r="M4" s="1056"/>
-      <c r="N4" s="1056"/>
+      <c r="B4" s="1064"/>
+      <c r="C4" s="1064"/>
+      <c r="D4" s="1064"/>
+      <c r="E4" s="1064"/>
+      <c r="F4" s="1064"/>
+      <c r="G4" s="1064"/>
+      <c r="H4" s="1064"/>
+      <c r="I4" s="1064"/>
+      <c r="J4" s="1064"/>
+      <c r="K4" s="1064"/>
+      <c r="L4" s="1064"/>
+      <c r="M4" s="1064"/>
+      <c r="N4" s="1064"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="L5" s="1059" t="s">
+      <c r="L5" s="1056" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="1059"/>
-      <c r="N5" s="1059"/>
+      <c r="M5" s="1056"/>
+      <c r="N5" s="1056"/>
     </row>
     <row r="6" spans="1:15" ht="24.75" customHeight="1">
       <c r="A6" s="980" t="s">
@@ -17909,20 +17901,20 @@
       <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1060" t="s">
+      <c r="C6" s="1057" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="1061"/>
-      <c r="E6" s="1061"/>
-      <c r="F6" s="1061"/>
-      <c r="G6" s="1061"/>
-      <c r="H6" s="1061"/>
-      <c r="I6" s="1061"/>
-      <c r="J6" s="1061"/>
-      <c r="K6" s="1061"/>
-      <c r="L6" s="1061"/>
-      <c r="M6" s="1062"/>
-      <c r="N6" s="1063" t="s">
+      <c r="D6" s="1058"/>
+      <c r="E6" s="1058"/>
+      <c r="F6" s="1058"/>
+      <c r="G6" s="1058"/>
+      <c r="H6" s="1058"/>
+      <c r="I6" s="1058"/>
+      <c r="J6" s="1058"/>
+      <c r="K6" s="1058"/>
+      <c r="L6" s="1058"/>
+      <c r="M6" s="1059"/>
+      <c r="N6" s="1060" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17964,7 +17956,7 @@
       <c r="M7" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="1064"/>
+      <c r="N7" s="1061"/>
     </row>
     <row r="8" spans="1:15" ht="19.399999999999999" customHeight="1">
       <c r="A8" s="489">
@@ -18806,10 +18798,10 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1">
-      <c r="A29" s="1065" t="s">
+      <c r="A29" s="1062" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1066"/>
+      <c r="B29" s="1063"/>
       <c r="C29" s="186">
         <f>SUM(C8:C28)</f>
         <v>9947</v>
@@ -18864,17 +18856,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="K3:N3"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
@@ -18910,21 +18902,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1">
-      <c r="K1" s="944" t="s">
+      <c r="K1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="944"/>
-      <c r="M1" s="944"/>
-      <c r="N1" s="944"/>
+      <c r="L1" s="958"/>
+      <c r="M1" s="958"/>
+      <c r="N1" s="958"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1">
-      <c r="A2" s="952" t="s">
+      <c r="A2" s="948" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="952"/>
-      <c r="C2" s="952"/>
-      <c r="D2" s="952"/>
-      <c r="E2" s="952"/>
+      <c r="B2" s="948"/>
+      <c r="C2" s="948"/>
+      <c r="D2" s="948"/>
+      <c r="E2" s="948"/>
       <c r="K2" s="977" t="s">
         <v>4</v>
       </c>
@@ -18971,11 +18963,11 @@
       <c r="N4" s="976"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" thickBot="1">
-      <c r="L5" s="1059" t="s">
+      <c r="L5" s="1056" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="1059"/>
-      <c r="N5" s="1059"/>
+      <c r="M5" s="1056"/>
+      <c r="N5" s="1056"/>
     </row>
     <row r="6" spans="1:16" ht="24.75" customHeight="1">
       <c r="A6" s="980" t="s">
@@ -18984,20 +18976,20 @@
       <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1060" t="s">
+      <c r="C6" s="1057" t="s">
         <v>512</v>
       </c>
-      <c r="D6" s="1061"/>
-      <c r="E6" s="1061"/>
-      <c r="F6" s="1061"/>
-      <c r="G6" s="1061"/>
-      <c r="H6" s="1061"/>
-      <c r="I6" s="1061"/>
-      <c r="J6" s="1061"/>
-      <c r="K6" s="1061"/>
-      <c r="L6" s="1061"/>
-      <c r="M6" s="1062"/>
-      <c r="N6" s="1063" t="s">
+      <c r="D6" s="1058"/>
+      <c r="E6" s="1058"/>
+      <c r="F6" s="1058"/>
+      <c r="G6" s="1058"/>
+      <c r="H6" s="1058"/>
+      <c r="I6" s="1058"/>
+      <c r="J6" s="1058"/>
+      <c r="K6" s="1058"/>
+      <c r="L6" s="1058"/>
+      <c r="M6" s="1059"/>
+      <c r="N6" s="1060" t="s">
         <v>12</v>
       </c>
     </row>
@@ -19039,7 +19031,7 @@
       <c r="M7" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="1064"/>
+      <c r="N7" s="1061"/>
     </row>
     <row r="8" spans="1:16" ht="19.399999999999999" customHeight="1">
       <c r="A8" s="489">
@@ -19603,17 +19595,17 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -19649,34 +19641,34 @@
       <c r="B1" s="390"/>
       <c r="C1" s="390"/>
       <c r="D1" s="390"/>
-      <c r="E1" s="944" t="s">
+      <c r="E1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="944"/>
-      <c r="G1" s="944"/>
+      <c r="F1" s="958"/>
+      <c r="G1" s="958"/>
       <c r="H1" s="246"/>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1">
-      <c r="A2" s="953" t="s">
+      <c r="A2" s="949" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="953"/>
-      <c r="C2" s="953"/>
-      <c r="D2" s="953"/>
-      <c r="E2" s="1048" t="s">
+      <c r="B2" s="949"/>
+      <c r="C2" s="949"/>
+      <c r="D2" s="949"/>
+      <c r="E2" s="1054" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1048"/>
-      <c r="G2" s="1048"/>
+      <c r="F2" s="1054"/>
+      <c r="G2" s="1054"/>
       <c r="H2" s="608"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1">
-      <c r="A3" s="1069" t="s">
+      <c r="A3" s="1077" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="1069"/>
-      <c r="C3" s="1069"/>
-      <c r="D3" s="1069"/>
+      <c r="B3" s="1077"/>
+      <c r="C3" s="1077"/>
+      <c r="D3" s="1077"/>
       <c r="E3" s="1042">
         <v>3</v>
       </c>
@@ -19718,33 +19710,33 @@
       <c r="B6" s="390"/>
       <c r="C6" s="390"/>
       <c r="D6" s="390"/>
-      <c r="F6" s="1059" t="s">
+      <c r="F6" s="1056" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="1059"/>
+      <c r="G6" s="1056"/>
       <c r="H6" s="390"/>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1">
       <c r="A7" s="980" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1072" t="s">
+      <c r="B7" s="1071" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="1060" t="s">
+      <c r="C7" s="1057" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1076"/>
-      <c r="E7" s="1076"/>
-      <c r="F7" s="1077"/>
-      <c r="G7" s="1074" t="s">
+      <c r="D7" s="1075"/>
+      <c r="E7" s="1075"/>
+      <c r="F7" s="1076"/>
+      <c r="G7" s="1073" t="s">
         <v>105</v>
       </c>
       <c r="H7" s="390"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1">
       <c r="A8" s="981"/>
-      <c r="B8" s="1073"/>
+      <c r="B8" s="1072"/>
       <c r="C8" s="55" t="s">
         <v>412</v>
       </c>
@@ -19757,7 +19749,7 @@
       <c r="F8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1075"/>
+      <c r="G8" s="1074"/>
       <c r="H8" s="390"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1">
@@ -20169,10 +20161,10 @@
       <c r="H32" s="390"/>
     </row>
     <row r="33" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A33" s="1070" t="s">
+      <c r="A33" s="1069" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="1071"/>
+      <c r="B33" s="1070"/>
       <c r="C33" s="767">
         <f>SUM(C9:C32)</f>
         <v>0</v>
@@ -20214,18 +20206,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -20287,15 +20279,15 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="M1" s="61"/>
-      <c r="N1" s="944" t="s">
+      <c r="N1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="944"/>
-      <c r="P1" s="944"/>
-      <c r="Q1" s="944"/>
-      <c r="R1" s="944"/>
-      <c r="S1" s="944"/>
-      <c r="T1" s="944"/>
+      <c r="O1" s="958"/>
+      <c r="P1" s="958"/>
+      <c r="Q1" s="958"/>
+      <c r="R1" s="958"/>
+      <c r="S1" s="958"/>
+      <c r="T1" s="958"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
@@ -20327,12 +20319,12 @@
       <c r="T2" s="977"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A3" s="946" t="s">
+      <c r="A3" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="946"/>
-      <c r="C3" s="946"/>
-      <c r="D3" s="946"/>
+      <c r="B3" s="960"/>
+      <c r="C3" s="960"/>
+      <c r="D3" s="960"/>
       <c r="E3" s="62"/>
       <c r="F3" s="356"/>
       <c r="G3" s="62"/>
@@ -20353,28 +20345,28 @@
       <c r="T3" s="978"/>
     </row>
     <row r="4" spans="1:26" ht="21" customHeight="1">
-      <c r="A4" s="952" t="s">
+      <c r="A4" s="948" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="952"/>
-      <c r="C4" s="952"/>
-      <c r="D4" s="952"/>
-      <c r="E4" s="952"/>
-      <c r="F4" s="952"/>
-      <c r="G4" s="952"/>
-      <c r="H4" s="952"/>
-      <c r="I4" s="952"/>
-      <c r="J4" s="952"/>
-      <c r="K4" s="952"/>
-      <c r="L4" s="952"/>
-      <c r="M4" s="952"/>
-      <c r="N4" s="952"/>
-      <c r="O4" s="952"/>
-      <c r="P4" s="952"/>
-      <c r="Q4" s="952"/>
-      <c r="R4" s="952"/>
-      <c r="S4" s="952"/>
-      <c r="T4" s="952"/>
+      <c r="B4" s="948"/>
+      <c r="C4" s="948"/>
+      <c r="D4" s="948"/>
+      <c r="E4" s="948"/>
+      <c r="F4" s="948"/>
+      <c r="G4" s="948"/>
+      <c r="H4" s="948"/>
+      <c r="I4" s="948"/>
+      <c r="J4" s="948"/>
+      <c r="K4" s="948"/>
+      <c r="L4" s="948"/>
+      <c r="M4" s="948"/>
+      <c r="N4" s="948"/>
+      <c r="O4" s="948"/>
+      <c r="P4" s="948"/>
+      <c r="Q4" s="948"/>
+      <c r="R4" s="948"/>
+      <c r="S4" s="948"/>
+      <c r="T4" s="948"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="16"/>
@@ -21674,16 +21666,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="N1:T1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="N3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
@@ -21745,15 +21737,15 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="M1" s="61"/>
-      <c r="N1" s="944" t="s">
+      <c r="N1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="944"/>
-      <c r="P1" s="944"/>
-      <c r="Q1" s="944"/>
-      <c r="R1" s="944"/>
-      <c r="S1" s="944"/>
-      <c r="T1" s="944"/>
+      <c r="O1" s="958"/>
+      <c r="P1" s="958"/>
+      <c r="Q1" s="958"/>
+      <c r="R1" s="958"/>
+      <c r="S1" s="958"/>
+      <c r="T1" s="958"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
@@ -21786,12 +21778,12 @@
       <c r="T2" s="977"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A3" s="946" t="s">
+      <c r="A3" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="946"/>
-      <c r="C3" s="946"/>
-      <c r="D3" s="946"/>
+      <c r="B3" s="960"/>
+      <c r="C3" s="960"/>
+      <c r="D3" s="960"/>
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
@@ -21812,28 +21804,28 @@
       <c r="T3" s="978"/>
     </row>
     <row r="4" spans="1:26" ht="21" customHeight="1">
-      <c r="A4" s="952" t="s">
+      <c r="A4" s="948" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="952"/>
-      <c r="C4" s="952"/>
-      <c r="D4" s="952"/>
-      <c r="E4" s="952"/>
-      <c r="F4" s="952"/>
-      <c r="G4" s="952"/>
-      <c r="H4" s="952"/>
-      <c r="I4" s="952"/>
-      <c r="J4" s="952"/>
-      <c r="K4" s="952"/>
-      <c r="L4" s="952"/>
-      <c r="M4" s="952"/>
-      <c r="N4" s="952"/>
-      <c r="O4" s="952"/>
-      <c r="P4" s="952"/>
-      <c r="Q4" s="952"/>
-      <c r="R4" s="952"/>
-      <c r="S4" s="952"/>
-      <c r="T4" s="952"/>
+      <c r="B4" s="948"/>
+      <c r="C4" s="948"/>
+      <c r="D4" s="948"/>
+      <c r="E4" s="948"/>
+      <c r="F4" s="948"/>
+      <c r="G4" s="948"/>
+      <c r="H4" s="948"/>
+      <c r="I4" s="948"/>
+      <c r="J4" s="948"/>
+      <c r="K4" s="948"/>
+      <c r="L4" s="948"/>
+      <c r="M4" s="948"/>
+      <c r="N4" s="948"/>
+      <c r="O4" s="948"/>
+      <c r="P4" s="948"/>
+      <c r="Q4" s="948"/>
+      <c r="R4" s="948"/>
+      <c r="S4" s="948"/>
+      <c r="T4" s="948"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="16"/>
@@ -23233,21 +23225,21 @@
       <c r="M1" s="815"/>
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
-      <c r="P1" s="944" t="s">
+      <c r="P1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="944"/>
-      <c r="R1" s="944"/>
+      <c r="Q1" s="958"/>
+      <c r="R1" s="958"/>
     </row>
     <row r="2" spans="1:34" ht="23.25" customHeight="1">
-      <c r="A2" s="1057" t="s">
+      <c r="A2" s="1065" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1057"/>
-      <c r="C2" s="1057"/>
-      <c r="D2" s="1057"/>
-      <c r="E2" s="1057"/>
-      <c r="F2" s="1057"/>
+      <c r="B2" s="1065"/>
+      <c r="C2" s="1065"/>
+      <c r="D2" s="1065"/>
+      <c r="E2" s="1065"/>
+      <c r="F2" s="1065"/>
       <c r="G2" s="815"/>
       <c r="H2" s="815"/>
       <c r="I2" s="815"/>
@@ -25469,7 +25461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204C2635-6CFB-4263-85CD-F0A4B6B1F668}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+    <sheetView topLeftCell="E8" workbookViewId="0">
       <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
@@ -25525,21 +25517,21 @@
       <c r="M1" s="815"/>
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
-      <c r="P1" s="944" t="s">
+      <c r="P1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="944"/>
-      <c r="R1" s="944"/>
+      <c r="Q1" s="958"/>
+      <c r="R1" s="958"/>
     </row>
     <row r="2" spans="1:34" ht="23.25" customHeight="1">
-      <c r="A2" s="1057" t="s">
+      <c r="A2" s="1065" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1057"/>
-      <c r="C2" s="1057"/>
-      <c r="D2" s="1057"/>
-      <c r="E2" s="1057"/>
-      <c r="F2" s="1057"/>
+      <c r="B2" s="1065"/>
+      <c r="C2" s="1065"/>
+      <c r="D2" s="1065"/>
+      <c r="E2" s="1065"/>
+      <c r="F2" s="1065"/>
       <c r="G2" s="815"/>
       <c r="H2" s="815"/>
       <c r="I2" s="815"/>
@@ -27668,41 +27660,41 @@
       <c r="C2" s="256"/>
       <c r="D2" s="256"/>
       <c r="E2" s="256"/>
-      <c r="F2" s="962" t="s">
+      <c r="F2" s="970" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="962"/>
-      <c r="H2" s="962"/>
+      <c r="G2" s="970"/>
+      <c r="H2" s="970"/>
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1">
-      <c r="A3" s="961" t="s">
+      <c r="A3" s="957" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="961"/>
-      <c r="C3" s="961"/>
-      <c r="D3" s="961"/>
+      <c r="B3" s="957"/>
+      <c r="C3" s="957"/>
+      <c r="D3" s="957"/>
       <c r="E3" s="258"/>
-      <c r="F3" s="963" t="s">
+      <c r="F3" s="971" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="963"/>
-      <c r="H3" s="963"/>
+      <c r="G3" s="971"/>
+      <c r="H3" s="971"/>
       <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1">
-      <c r="A4" s="964" t="s">
+      <c r="A4" s="972" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="964"/>
-      <c r="C4" s="964"/>
-      <c r="D4" s="964"/>
+      <c r="B4" s="972"/>
+      <c r="C4" s="972"/>
+      <c r="D4" s="972"/>
       <c r="E4" s="260"/>
-      <c r="F4" s="965">
+      <c r="F4" s="973">
         <v>3</v>
       </c>
-      <c r="G4" s="965"/>
-      <c r="H4" s="965"/>
+      <c r="G4" s="973"/>
+      <c r="H4" s="973"/>
       <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1">
@@ -27718,16 +27710,16 @@
       <c r="H5" s="940"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1">
-      <c r="A6" s="968" t="s">
+      <c r="A6" s="964" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="968"/>
-      <c r="C6" s="968"/>
-      <c r="D6" s="968"/>
-      <c r="E6" s="968"/>
-      <c r="F6" s="968"/>
-      <c r="G6" s="968"/>
-      <c r="H6" s="968"/>
+      <c r="B6" s="964"/>
+      <c r="C6" s="964"/>
+      <c r="D6" s="964"/>
+      <c r="E6" s="964"/>
+      <c r="F6" s="964"/>
+      <c r="G6" s="964"/>
+      <c r="H6" s="964"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A7" s="261"/>
@@ -27735,14 +27727,14 @@
       <c r="C7" s="261"/>
       <c r="D7" s="262"/>
       <c r="E7" s="261"/>
-      <c r="F7" s="969" t="s">
+      <c r="F7" s="965" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="969"/>
-      <c r="H7" s="969"/>
+      <c r="G7" s="965"/>
+      <c r="H7" s="965"/>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1">
-      <c r="A8" s="970" t="s">
+      <c r="A8" s="966" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="263" t="s">
@@ -27757,16 +27749,16 @@
       <c r="E8" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="972" t="s">
+      <c r="F8" s="968" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="973"/>
+      <c r="G8" s="969"/>
       <c r="H8" s="266" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1">
-      <c r="A9" s="971"/>
+      <c r="A9" s="967"/>
       <c r="B9" s="267" t="s">
         <v>13</v>
       </c>
@@ -27884,10 +27876,10 @@
       <c r="H13" s="280"/>
     </row>
     <row r="14" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A14" s="966" t="s">
+      <c r="A14" s="962" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="967"/>
+      <c r="B14" s="963"/>
       <c r="C14" s="282">
         <v>24254</v>
       </c>
@@ -27942,17 +27934,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -27996,21 +27988,21 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33">
-      <c r="A3" s="963" t="s">
+      <c r="A3" s="971" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="963"/>
+      <c r="B3" s="971"/>
       <c r="D3" s="682">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40.4" customHeight="1">
-      <c r="A4" s="961" t="s">
+      <c r="A4" s="957" t="s">
         <v>590</v>
       </c>
-      <c r="B4" s="961"/>
-      <c r="C4" s="961"/>
-      <c r="D4" s="961"/>
+      <c r="B4" s="957"/>
+      <c r="C4" s="957"/>
+      <c r="D4" s="957"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1">
       <c r="A5" s="683" t="s">
@@ -28501,10 +28493,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="F1" s="944" t="s">
+      <c r="F1" s="958" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="944"/>
+      <c r="G1" s="958"/>
     </row>
     <row r="2" spans="1:7" ht="19" customHeight="1">
       <c r="A2" s="947" t="s">
@@ -28514,10 +28506,10 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="946" t="s">
+      <c r="F2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="946"/>
+      <c r="G2" s="960"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="947" t="s">
@@ -28533,36 +28525,36 @@
       <c r="G3" s="1042"/>
     </row>
     <row r="4" spans="1:7" ht="25.4" customHeight="1" thickBot="1">
-      <c r="A4" s="1092" t="s">
+      <c r="A4" s="1087" t="s">
         <v>629</v>
       </c>
-      <c r="B4" s="1092"/>
-      <c r="C4" s="1092"/>
-      <c r="D4" s="1092"/>
-      <c r="E4" s="1092"/>
-      <c r="F4" s="1092"/>
-      <c r="G4" s="1092"/>
+      <c r="B4" s="1087"/>
+      <c r="C4" s="1087"/>
+      <c r="D4" s="1087"/>
+      <c r="E4" s="1087"/>
+      <c r="F4" s="1087"/>
+      <c r="G4" s="1087"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1">
       <c r="A5" s="980" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1072" t="s">
+      <c r="B5" s="1071" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="1089" t="s">
+      <c r="C5" s="1090" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="1090"/>
-      <c r="E5" s="1090"/>
-      <c r="F5" s="1091"/>
+      <c r="D5" s="1091"/>
+      <c r="E5" s="1091"/>
+      <c r="F5" s="1092"/>
       <c r="G5" s="984" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.4" customHeight="1">
       <c r="A6" s="981"/>
-      <c r="B6" s="1073"/>
+      <c r="B6" s="1072"/>
       <c r="C6" s="55" t="s">
         <v>176</v>
       </c>
@@ -29080,10 +29072,10 @@
       <c r="G37" s="834"/>
     </row>
     <row r="38" spans="1:7" ht="22.4" customHeight="1" thickBot="1">
-      <c r="A38" s="1087" t="s">
+      <c r="A38" s="1088" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="1088"/>
+      <c r="B38" s="1089"/>
       <c r="C38" s="835">
         <f>SUM(C7:C37)</f>
         <v>0</v>
@@ -29107,17 +29099,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -29149,16 +29141,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="G1" s="944" t="s">
+      <c r="G1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="944"/>
+      <c r="H1" s="958"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="952" t="s">
+      <c r="A2" s="948" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="952"/>
+      <c r="B2" s="948"/>
       <c r="C2" s="52"/>
       <c r="G2" s="977" t="s">
         <v>4</v>
@@ -29171,10 +29163,10 @@
       </c>
       <c r="B3" s="947"/>
       <c r="C3" s="608"/>
-      <c r="G3" s="1093">
+      <c r="G3" s="1097">
         <v>3</v>
       </c>
-      <c r="H3" s="1093"/>
+      <c r="H3" s="1097"/>
     </row>
     <row r="4" spans="1:8" ht="43.5" customHeight="1" thickBot="1">
       <c r="A4" s="947" t="s">
@@ -29189,7 +29181,7 @@
       <c r="H4" s="947"/>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A5" s="1022" t="s">
+      <c r="A5" s="1027" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1044" t="s">
@@ -29204,17 +29196,17 @@
       <c r="E5" s="814" t="s">
         <v>626</v>
       </c>
-      <c r="F5" s="1096" t="s">
+      <c r="F5" s="1095" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1097"/>
+      <c r="G5" s="1096"/>
       <c r="H5" s="816" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
-      <c r="A6" s="1094"/>
-      <c r="B6" s="1095"/>
+      <c r="A6" s="1093"/>
+      <c r="B6" s="1094"/>
       <c r="C6" s="817" t="s">
         <v>627</v>
       </c>
@@ -29462,16 +29454,16 @@
     <row r="32" ht="19" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
@@ -29510,22 +29502,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" customHeight="1">
-      <c r="K1" s="944" t="s">
+      <c r="K1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="944"/>
-      <c r="M1" s="944"/>
-      <c r="N1" s="944"/>
-      <c r="O1" s="944"/>
+      <c r="L1" s="958"/>
+      <c r="M1" s="958"/>
+      <c r="N1" s="958"/>
+      <c r="O1" s="958"/>
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A2" s="952" t="s">
+      <c r="A2" s="948" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="952"/>
-      <c r="C2" s="952"/>
-      <c r="D2" s="952"/>
-      <c r="E2" s="952"/>
+      <c r="B2" s="948"/>
+      <c r="C2" s="948"/>
+      <c r="D2" s="948"/>
+      <c r="E2" s="948"/>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
@@ -29540,25 +29532,25 @@
       <c r="O2" s="977"/>
     </row>
     <row r="3" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A3" s="952" t="s">
+      <c r="A3" s="948" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="952"/>
-      <c r="C3" s="952"/>
-      <c r="D3" s="952"/>
-      <c r="E3" s="952"/>
+      <c r="B3" s="948"/>
+      <c r="C3" s="948"/>
+      <c r="D3" s="948"/>
+      <c r="E3" s="948"/>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="1093">
+      <c r="K3" s="1097">
         <v>3</v>
       </c>
-      <c r="L3" s="1093"/>
-      <c r="M3" s="1093"/>
-      <c r="N3" s="1093"/>
-      <c r="O3" s="1093"/>
+      <c r="L3" s="1097"/>
+      <c r="M3" s="1097"/>
+      <c r="N3" s="1097"/>
+      <c r="O3" s="1097"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" customHeight="1" thickBot="1">
       <c r="A4" s="947" t="s">
@@ -29580,63 +29572,63 @@
       <c r="O4" s="947"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A5" s="1098" t="s">
+      <c r="A5" s="1099" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1100" t="s">
+      <c r="C5" s="1101" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="1100"/>
-      <c r="E5" s="1100"/>
-      <c r="F5" s="1100"/>
-      <c r="G5" s="1100" t="s">
+      <c r="D5" s="1101"/>
+      <c r="E5" s="1101"/>
+      <c r="F5" s="1101"/>
+      <c r="G5" s="1101" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="1100"/>
-      <c r="I5" s="1100"/>
-      <c r="J5" s="1100"/>
-      <c r="K5" s="1100" t="s">
+      <c r="H5" s="1101"/>
+      <c r="I5" s="1101"/>
+      <c r="J5" s="1101"/>
+      <c r="K5" s="1101" t="s">
         <v>634</v>
       </c>
-      <c r="L5" s="1100"/>
-      <c r="M5" s="1100"/>
-      <c r="N5" s="1100"/>
+      <c r="L5" s="1101"/>
+      <c r="M5" s="1101"/>
+      <c r="N5" s="1101"/>
       <c r="O5" s="984" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A6" s="1099"/>
+      <c r="A6" s="1100"/>
       <c r="B6" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1103" t="s">
+      <c r="C6" s="1098" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1103"/>
-      <c r="E6" s="1103" t="s">
+      <c r="D6" s="1098"/>
+      <c r="E6" s="1098" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="1103"/>
-      <c r="G6" s="1103" t="s">
+      <c r="F6" s="1098"/>
+      <c r="G6" s="1098" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="1103"/>
-      <c r="I6" s="1103" t="s">
+      <c r="H6" s="1098"/>
+      <c r="I6" s="1098" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="1103"/>
-      <c r="K6" s="1103" t="s">
+      <c r="J6" s="1098"/>
+      <c r="K6" s="1098" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="1103"/>
-      <c r="M6" s="1103" t="s">
+      <c r="L6" s="1098"/>
+      <c r="M6" s="1098" t="s">
         <v>115</v>
       </c>
-      <c r="N6" s="1103"/>
+      <c r="N6" s="1098"/>
       <c r="O6" s="985"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1">
@@ -30306,10 +30298,10 @@
       <c r="O32" s="882"/>
     </row>
     <row r="33" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="1101" t="s">
+      <c r="A33" s="1102" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1102"/>
+      <c r="B33" s="1103"/>
       <c r="C33" s="888">
         <f>SUM(C8:C32)</f>
         <v>64879</v>
@@ -30362,6 +30354,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
@@ -30369,17 +30372,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -30421,36 +30413,36 @@
       <c r="C1" s="390"/>
       <c r="D1" s="390"/>
       <c r="E1" s="700"/>
-      <c r="F1" s="944" t="s">
+      <c r="F1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="944"/>
-      <c r="H1" s="944"/>
-      <c r="I1" s="944"/>
-      <c r="J1" s="944"/>
+      <c r="G1" s="958"/>
+      <c r="H1" s="958"/>
+      <c r="I1" s="958"/>
+      <c r="J1" s="958"/>
     </row>
     <row r="2" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="959" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="945"/>
-      <c r="C2" s="945"/>
+      <c r="B2" s="959"/>
+      <c r="C2" s="959"/>
       <c r="D2" s="52"/>
       <c r="E2" s="701"/>
-      <c r="F2" s="946" t="s">
+      <c r="F2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="946"/>
-      <c r="H2" s="946"/>
-      <c r="I2" s="946"/>
-      <c r="J2" s="946"/>
+      <c r="G2" s="960"/>
+      <c r="H2" s="960"/>
+      <c r="I2" s="960"/>
+      <c r="J2" s="960"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="946" t="s">
+      <c r="A3" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="946"/>
-      <c r="C3" s="946"/>
+      <c r="B3" s="960"/>
+      <c r="C3" s="960"/>
       <c r="D3" s="2"/>
       <c r="E3" s="702"/>
       <c r="F3" s="54"/>
@@ -30460,16 +30452,16 @@
       <c r="H3" s="978"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="952" t="s">
+      <c r="A4" s="948" t="s">
         <v>515</v>
       </c>
-      <c r="B4" s="952"/>
-      <c r="C4" s="952"/>
-      <c r="D4" s="952"/>
-      <c r="E4" s="952"/>
-      <c r="F4" s="952"/>
-      <c r="G4" s="952"/>
-      <c r="H4" s="952"/>
+      <c r="B4" s="948"/>
+      <c r="C4" s="948"/>
+      <c r="D4" s="948"/>
+      <c r="E4" s="948"/>
+      <c r="F4" s="948"/>
+      <c r="G4" s="948"/>
+      <c r="H4" s="948"/>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
@@ -31181,16 +31173,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -31225,10 +31217,10 @@
       <c r="B1" s="838"/>
       <c r="C1" s="838"/>
       <c r="D1" s="838"/>
-      <c r="E1" s="944" t="s">
+      <c r="E1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="944"/>
+      <c r="F1" s="958"/>
       <c r="G1" s="246"/>
     </row>
     <row r="2" spans="1:7" ht="33">
@@ -31238,18 +31230,18 @@
       <c r="B2" s="947"/>
       <c r="C2" s="947"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="946" t="s">
+      <c r="E2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="946"/>
+      <c r="F2" s="960"/>
       <c r="G2" s="244"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="1048" t="s">
+      <c r="A3" s="1054" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1048"/>
-      <c r="C3" s="1048"/>
+      <c r="B3" s="1054"/>
+      <c r="C3" s="1054"/>
       <c r="D3" s="838"/>
       <c r="E3" s="978">
         <v>3</v>
@@ -31258,14 +31250,14 @@
       <c r="G3" s="252"/>
     </row>
     <row r="4" spans="1:7" ht="23">
-      <c r="A4" s="1021" t="s">
+      <c r="A4" s="1026" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="1021"/>
-      <c r="C4" s="1021"/>
-      <c r="D4" s="1021"/>
-      <c r="E4" s="1021"/>
-      <c r="F4" s="1021"/>
+      <c r="B4" s="1026"/>
+      <c r="C4" s="1026"/>
+      <c r="D4" s="1026"/>
+      <c r="E4" s="1026"/>
+      <c r="F4" s="1026"/>
     </row>
     <row r="5" spans="1:7" ht="11.25" customHeight="1" thickBot="1">
       <c r="F5" s="837"/>
@@ -31611,6 +31603,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="F6:F7"/>
@@ -31618,11 +31615,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.25" top="0.75" bottom="0.5" header="0.25" footer="0.25"/>
@@ -31702,14 +31694,14 @@
       <c r="P1" s="16"/>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
-      <c r="S1" s="944" t="s">
+      <c r="S1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="944"/>
-      <c r="U1" s="944"/>
-      <c r="V1" s="944"/>
-      <c r="W1" s="944"/>
-      <c r="X1" s="944"/>
+      <c r="T1" s="958"/>
+      <c r="U1" s="958"/>
+      <c r="V1" s="958"/>
+      <c r="W1" s="958"/>
+      <c r="X1" s="958"/>
       <c r="Y1" s="238"/>
       <c r="Z1" s="16"/>
       <c r="AA1" s="16"/>
@@ -31723,28 +31715,28 @@
       <c r="AI1" s="16"/>
       <c r="AJ1" s="16"/>
       <c r="AK1" s="48"/>
-      <c r="AL1" s="944" t="s">
+      <c r="AL1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="944"/>
-      <c r="AN1" s="944"/>
-      <c r="AO1" s="944"/>
-      <c r="AP1" s="944"/>
-      <c r="AQ1" s="944"/>
+      <c r="AM1" s="958"/>
+      <c r="AN1" s="958"/>
+      <c r="AO1" s="958"/>
+      <c r="AP1" s="958"/>
+      <c r="AQ1" s="958"/>
     </row>
     <row r="2" spans="1:43" ht="24.75" customHeight="1">
-      <c r="A2" s="1057" t="s">
+      <c r="A2" s="1065" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1057"/>
-      <c r="C2" s="1057"/>
-      <c r="D2" s="1057"/>
-      <c r="E2" s="1057"/>
-      <c r="F2" s="1057"/>
-      <c r="G2" s="1057"/>
-      <c r="H2" s="1057"/>
-      <c r="I2" s="1057"/>
-      <c r="J2" s="1057"/>
+      <c r="B2" s="1065"/>
+      <c r="C2" s="1065"/>
+      <c r="D2" s="1065"/>
+      <c r="E2" s="1065"/>
+      <c r="F2" s="1065"/>
+      <c r="G2" s="1065"/>
+      <c r="H2" s="1065"/>
+      <c r="I2" s="1065"/>
+      <c r="J2" s="1065"/>
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61"/>
@@ -31753,22 +31745,22 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="946" t="s">
+      <c r="S2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="946"/>
-      <c r="U2" s="946"/>
-      <c r="V2" s="946"/>
-      <c r="W2" s="946"/>
-      <c r="X2" s="946"/>
+      <c r="T2" s="960"/>
+      <c r="U2" s="960"/>
+      <c r="V2" s="960"/>
+      <c r="W2" s="960"/>
+      <c r="X2" s="960"/>
       <c r="Y2" s="239"/>
-      <c r="Z2" s="1021" t="s">
+      <c r="Z2" s="1026" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="1021"/>
-      <c r="AB2" s="1021"/>
-      <c r="AC2" s="1021"/>
-      <c r="AD2" s="1021"/>
+      <c r="AA2" s="1026"/>
+      <c r="AB2" s="1026"/>
+      <c r="AC2" s="1026"/>
+      <c r="AD2" s="1026"/>
       <c r="AE2" s="61"/>
       <c r="AF2" s="61"/>
       <c r="AG2" s="61"/>
@@ -31776,14 +31768,14 @@
       <c r="AI2" s="61"/>
       <c r="AJ2" s="61"/>
       <c r="AK2" s="18"/>
-      <c r="AL2" s="946" t="s">
+      <c r="AL2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="946"/>
-      <c r="AN2" s="946"/>
-      <c r="AO2" s="946"/>
-      <c r="AP2" s="946"/>
-      <c r="AQ2" s="946"/>
+      <c r="AM2" s="960"/>
+      <c r="AN2" s="960"/>
+      <c r="AO2" s="960"/>
+      <c r="AP2" s="960"/>
+      <c r="AQ2" s="960"/>
     </row>
     <row r="3" spans="1:43" ht="27" customHeight="1">
       <c r="A3" s="230" t="s">
@@ -31815,13 +31807,13 @@
       <c r="W3" s="978"/>
       <c r="X3" s="978"/>
       <c r="Y3" s="223"/>
-      <c r="Z3" s="1048" t="s">
+      <c r="Z3" s="1054" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="1048"/>
-      <c r="AB3" s="1048"/>
-      <c r="AC3" s="1048"/>
-      <c r="AD3" s="1048"/>
+      <c r="AA3" s="1054"/>
+      <c r="AB3" s="1054"/>
+      <c r="AC3" s="1054"/>
+      <c r="AD3" s="1054"/>
       <c r="AE3" s="18"/>
       <c r="AF3" s="18"/>
       <c r="AG3" s="61"/>
@@ -31839,53 +31831,53 @@
       <c r="AQ3" s="978"/>
     </row>
     <row r="4" spans="1:43" ht="29.25" customHeight="1">
-      <c r="A4" s="1021" t="s">
+      <c r="A4" s="1026" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="1021"/>
-      <c r="C4" s="1021"/>
-      <c r="D4" s="1021"/>
-      <c r="E4" s="1021"/>
-      <c r="F4" s="1021"/>
-      <c r="G4" s="1021"/>
-      <c r="H4" s="1021"/>
-      <c r="I4" s="1021"/>
-      <c r="J4" s="1021"/>
-      <c r="K4" s="1021"/>
-      <c r="L4" s="1021"/>
-      <c r="M4" s="1021"/>
-      <c r="N4" s="1021"/>
-      <c r="O4" s="1021"/>
-      <c r="P4" s="1021"/>
-      <c r="Q4" s="1021"/>
-      <c r="R4" s="1021"/>
-      <c r="S4" s="1021"/>
-      <c r="T4" s="1021"/>
-      <c r="U4" s="1021"/>
-      <c r="V4" s="1021"/>
-      <c r="W4" s="1021"/>
-      <c r="X4" s="1021"/>
+      <c r="B4" s="1026"/>
+      <c r="C4" s="1026"/>
+      <c r="D4" s="1026"/>
+      <c r="E4" s="1026"/>
+      <c r="F4" s="1026"/>
+      <c r="G4" s="1026"/>
+      <c r="H4" s="1026"/>
+      <c r="I4" s="1026"/>
+      <c r="J4" s="1026"/>
+      <c r="K4" s="1026"/>
+      <c r="L4" s="1026"/>
+      <c r="M4" s="1026"/>
+      <c r="N4" s="1026"/>
+      <c r="O4" s="1026"/>
+      <c r="P4" s="1026"/>
+      <c r="Q4" s="1026"/>
+      <c r="R4" s="1026"/>
+      <c r="S4" s="1026"/>
+      <c r="T4" s="1026"/>
+      <c r="U4" s="1026"/>
+      <c r="V4" s="1026"/>
+      <c r="W4" s="1026"/>
+      <c r="X4" s="1026"/>
       <c r="Y4" s="368"/>
-      <c r="Z4" s="1021" t="s">
+      <c r="Z4" s="1026" t="s">
         <v>517</v>
       </c>
-      <c r="AA4" s="1021"/>
-      <c r="AB4" s="1021"/>
-      <c r="AC4" s="1021"/>
-      <c r="AD4" s="1021"/>
-      <c r="AE4" s="1021"/>
-      <c r="AF4" s="1021"/>
-      <c r="AG4" s="1021"/>
-      <c r="AH4" s="1021"/>
-      <c r="AI4" s="1021"/>
-      <c r="AJ4" s="1021"/>
-      <c r="AK4" s="1021"/>
-      <c r="AL4" s="1021"/>
-      <c r="AM4" s="1021"/>
-      <c r="AN4" s="1021"/>
-      <c r="AO4" s="1021"/>
-      <c r="AP4" s="1021"/>
-      <c r="AQ4" s="1021"/>
+      <c r="AA4" s="1026"/>
+      <c r="AB4" s="1026"/>
+      <c r="AC4" s="1026"/>
+      <c r="AD4" s="1026"/>
+      <c r="AE4" s="1026"/>
+      <c r="AF4" s="1026"/>
+      <c r="AG4" s="1026"/>
+      <c r="AH4" s="1026"/>
+      <c r="AI4" s="1026"/>
+      <c r="AJ4" s="1026"/>
+      <c r="AK4" s="1026"/>
+      <c r="AL4" s="1026"/>
+      <c r="AM4" s="1026"/>
+      <c r="AN4" s="1026"/>
+      <c r="AO4" s="1026"/>
+      <c r="AP4" s="1026"/>
+      <c r="AQ4" s="1026"/>
     </row>
     <row r="5" spans="1:43" ht="20.25" customHeight="1" thickBot="1">
       <c r="A5" s="16"/>
@@ -31930,10 +31922,10 @@
       <c r="AL5" s="16"/>
       <c r="AN5" s="96"/>
       <c r="AO5" s="96"/>
-      <c r="AP5" s="1123" t="s">
+      <c r="AP5" s="1121" t="s">
         <v>1</v>
       </c>
-      <c r="AQ5" s="1123"/>
+      <c r="AQ5" s="1121"/>
     </row>
     <row r="6" spans="1:43" ht="24" customHeight="1">
       <c r="A6" s="980" t="s">
@@ -32005,7 +31997,7 @@
       <c r="W6" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="X6" s="1121" t="s">
+      <c r="X6" s="1122" t="s">
         <v>42</v>
       </c>
       <c r="Y6" s="370"/>
@@ -32060,7 +32052,7 @@
       <c r="AP6" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="AQ6" s="1121" t="s">
+      <c r="AQ6" s="1122" t="s">
         <v>101</v>
       </c>
     </row>
@@ -32120,7 +32112,7 @@
       <c r="W7" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="X7" s="1122"/>
+      <c r="X7" s="1123"/>
       <c r="Y7" s="371"/>
       <c r="Z7" s="981"/>
       <c r="AA7" s="67" t="s">
@@ -32163,7 +32155,7 @@
       <c r="AP7" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AQ7" s="1122"/>
+      <c r="AQ7" s="1123"/>
     </row>
     <row r="8" spans="1:43" ht="24" customHeight="1">
       <c r="A8" s="59">
@@ -33097,6 +33089,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="S2:X2"/>
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="Z4:AQ4"/>
     <mergeCell ref="AL3:AQ3"/>
@@ -33106,16 +33108,6 @@
     <mergeCell ref="S5:X5"/>
     <mergeCell ref="AP5:AQ5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="S3:X3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -33146,11 +33138,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="E1" s="944" t="s">
+      <c r="E1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="944"/>
-      <c r="G1" s="944"/>
+      <c r="F1" s="958"/>
+      <c r="G1" s="958"/>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="947" t="s">
@@ -33159,17 +33151,17 @@
       <c r="B2" s="947"/>
       <c r="C2" s="947"/>
       <c r="D2" s="947"/>
-      <c r="E2" s="946" t="s">
+      <c r="E2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="946"/>
-      <c r="G2" s="946"/>
+      <c r="F2" s="960"/>
+      <c r="G2" s="960"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A3" s="1048" t="s">
+      <c r="A3" s="1054" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1048"/>
+      <c r="B3" s="1054"/>
       <c r="C3" s="507"/>
       <c r="E3" s="978">
         <v>3</v>
@@ -33189,16 +33181,16 @@
       <c r="G4" s="947"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="F5" s="1126" t="s">
+      <c r="F5" s="1128" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1127"/>
+      <c r="G5" s="1129"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
       <c r="A6" s="980" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1072" t="s">
+      <c r="B6" s="1071" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="982" t="s">
@@ -33207,13 +33199,13 @@
       <c r="D6" s="983"/>
       <c r="E6" s="983"/>
       <c r="F6" s="1110"/>
-      <c r="G6" s="1128" t="s">
+      <c r="G6" s="1124" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1">
       <c r="A7" s="981"/>
-      <c r="B7" s="1073"/>
+      <c r="B7" s="1072"/>
       <c r="C7" s="55" t="s">
         <v>412</v>
       </c>
@@ -33226,7 +33218,7 @@
       <c r="F7" s="508" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1129"/>
+      <c r="G7" s="1125"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="43">
@@ -33969,10 +33961,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="19" customHeight="1" thickBot="1">
-      <c r="A53" s="1124" t="s">
+      <c r="A53" s="1126" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="1125"/>
+      <c r="B53" s="1127"/>
       <c r="C53" s="601">
         <f>C31+C52</f>
         <v>0</v>
@@ -33996,6 +33988,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="E1:G1"/>
@@ -34003,11 +34000,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -34043,33 +34035,33 @@
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
-      <c r="E1" s="944" t="s">
+      <c r="E1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="944"/>
+      <c r="F1" s="958"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="959" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="945"/>
-      <c r="C2" s="945"/>
+      <c r="B2" s="959"/>
+      <c r="C2" s="959"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="946" t="s">
+      <c r="E2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="946"/>
+      <c r="F2" s="960"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="946" t="s">
+      <c r="A3" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="946"/>
-      <c r="C3" s="946"/>
+      <c r="B3" s="960"/>
+      <c r="C3" s="960"/>
       <c r="D3" s="2"/>
       <c r="E3" s="978">
         <v>3</v>
@@ -34546,11 +34538,11 @@
       <c r="C1" s="390"/>
       <c r="D1" s="390"/>
       <c r="E1" s="390"/>
-      <c r="F1" s="944" t="s">
+      <c r="F1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="944"/>
-      <c r="H1" s="944"/>
+      <c r="G1" s="958"/>
+      <c r="H1" s="958"/>
       <c r="I1" s="246"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
@@ -34561,18 +34553,18 @@
       <c r="C2" s="237"/>
       <c r="D2" s="237"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="946" t="s">
+      <c r="F2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="946"/>
-      <c r="H2" s="946"/>
+      <c r="G2" s="960"/>
+      <c r="H2" s="960"/>
       <c r="I2" s="244"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A3" s="946" t="s">
+      <c r="A3" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="946"/>
+      <c r="B3" s="960"/>
       <c r="C3" s="236"/>
       <c r="D3" s="236"/>
       <c r="E3" s="2"/>
@@ -35057,26 +35049,26 @@
       <c r="D1" s="100"/>
       <c r="E1" s="100"/>
       <c r="F1" s="100"/>
-      <c r="G1" s="944" t="s">
+      <c r="G1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="944"/>
-      <c r="I1" s="944"/>
+      <c r="H1" s="958"/>
+      <c r="I1" s="958"/>
     </row>
     <row r="2" spans="1:21" ht="27" customHeight="1">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="959" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="945"/>
+      <c r="B2" s="959"/>
       <c r="C2" s="100"/>
       <c r="D2" s="100"/>
       <c r="E2" s="100"/>
       <c r="F2" s="100"/>
-      <c r="G2" s="946" t="s">
+      <c r="G2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="946"/>
-      <c r="I2" s="946"/>
+      <c r="H2" s="960"/>
+      <c r="I2" s="960"/>
     </row>
     <row r="3" spans="1:21" ht="25" customHeight="1">
       <c r="A3" s="947" t="s">
@@ -35089,11 +35081,11 @@
       <c r="D3" s="947"/>
       <c r="E3" s="947"/>
       <c r="F3" s="947"/>
-      <c r="G3" s="948">
+      <c r="G3" s="961">
         <v>3</v>
       </c>
-      <c r="H3" s="948"/>
-      <c r="I3" s="948"/>
+      <c r="H3" s="961"/>
+      <c r="I3" s="961"/>
     </row>
     <row r="4" spans="1:21" ht="11.25" customHeight="1" thickBot="1">
       <c r="A4" s="100"/>
@@ -35107,13 +35099,13 @@
       <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:21" ht="21" customHeight="1">
-      <c r="A5" s="955" t="s">
+      <c r="A5" s="951" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="957" t="s">
+      <c r="B5" s="953" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="957" t="s">
+      <c r="C5" s="953" t="s">
         <v>290</v>
       </c>
       <c r="D5" s="199" t="s">
@@ -35125,18 +35117,18 @@
       <c r="F5" s="199" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="959" t="s">
+      <c r="G5" s="955" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="960"/>
-      <c r="I5" s="949" t="s">
+      <c r="H5" s="956"/>
+      <c r="I5" s="944" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="21" customHeight="1">
-      <c r="A6" s="956"/>
-      <c r="B6" s="958"/>
-      <c r="C6" s="958"/>
+      <c r="A6" s="952"/>
+      <c r="B6" s="954"/>
+      <c r="C6" s="954"/>
       <c r="D6" s="202" t="s">
         <v>293</v>
       </c>
@@ -35152,7 +35144,7 @@
       <c r="H6" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="950"/>
+      <c r="I6" s="945"/>
     </row>
     <row r="7" spans="1:21" ht="21" customHeight="1">
       <c r="A7" s="102" t="s">
@@ -36234,21 +36226,21 @@
       <c r="C46" s="100"/>
       <c r="D46" s="100"/>
       <c r="E46" s="100"/>
-      <c r="F46" s="951" t="s">
+      <c r="F46" s="946" t="s">
         <v>435</v>
       </c>
-      <c r="G46" s="951"/>
-      <c r="H46" s="951"/>
-      <c r="I46" s="951"/>
+      <c r="G46" s="946"/>
+      <c r="H46" s="946"/>
+      <c r="I46" s="946"/>
       <c r="M46" s="410">
         <v>87590000</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="23.15" customHeight="1">
-      <c r="A47" s="952" t="s">
+      <c r="A47" s="948" t="s">
         <v>337</v>
       </c>
-      <c r="B47" s="952"/>
+      <c r="B47" s="948"/>
       <c r="D47" s="947" t="s">
         <v>430</v>
       </c>
@@ -36264,10 +36256,10 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="23.15" customHeight="1">
-      <c r="A48" s="952" t="s">
+      <c r="A48" s="948" t="s">
         <v>339</v>
       </c>
-      <c r="B48" s="952"/>
+      <c r="B48" s="948"/>
       <c r="D48" s="947" t="s">
         <v>426</v>
       </c>
@@ -36281,10 +36273,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="23.15" customHeight="1">
-      <c r="A49" s="952" t="s">
+      <c r="A49" s="948" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="952"/>
+      <c r="B49" s="948"/>
       <c r="D49" s="947" t="s">
         <v>425</v>
       </c>
@@ -36323,6 +36315,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
@@ -36335,13 +36334,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.25" footer="0.25"/>
@@ -36382,21 +36374,21 @@
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="51"/>
-      <c r="B2" s="953" t="s">
+      <c r="B2" s="949" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="953"/>
+      <c r="C2" s="949"/>
       <c r="D2" s="51"/>
-      <c r="E2" s="1058" t="s">
+      <c r="E2" s="1066" t="s">
         <v>360</v>
       </c>
-      <c r="F2" s="1058"/>
+      <c r="F2" s="1066"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="1069" t="s">
+      <c r="A3" s="1077" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="1069"/>
+      <c r="B3" s="1077"/>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
       <c r="E3" s="252"/>
@@ -36406,20 +36398,20 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="1092" t="s">
+      <c r="A4" s="1087" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="1092"/>
-      <c r="C4" s="1092"/>
-      <c r="D4" s="1092"/>
-      <c r="E4" s="1092"/>
-      <c r="F4" s="1092"/>
+      <c r="B4" s="1087"/>
+      <c r="C4" s="1087"/>
+      <c r="D4" s="1087"/>
+      <c r="E4" s="1087"/>
+      <c r="F4" s="1087"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
       <c r="A5" s="980" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1072" t="s">
+      <c r="B5" s="1071" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="982" t="s">
@@ -36433,7 +36425,7 @@
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" s="981"/>
-      <c r="B6" s="1073"/>
+      <c r="B6" s="1072"/>
       <c r="C6" s="55" t="s">
         <v>452</v>
       </c>
@@ -36942,42 +36934,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="H1" s="944" t="s">
+      <c r="H1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="944"/>
+      <c r="I1" s="958"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A2" s="952" t="s">
+      <c r="A2" s="948" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="952"/>
-      <c r="C2" s="952"/>
+      <c r="B2" s="948"/>
+      <c r="C2" s="948"/>
       <c r="H2" s="977" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="977"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A3" s="1145" t="s">
+      <c r="A3" s="1137" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1145"/>
-      <c r="C3" s="1145"/>
-      <c r="H3" s="1093">
+      <c r="B3" s="1137"/>
+      <c r="C3" s="1137"/>
+      <c r="H3" s="1097">
         <v>3</v>
       </c>
-      <c r="I3" s="1093"/>
+      <c r="I3" s="1097"/>
     </row>
     <row r="4" spans="1:9" ht="19" customHeight="1">
-      <c r="C4" s="952" t="s">
+      <c r="C4" s="948" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="952"/>
-      <c r="E4" s="952"/>
-      <c r="F4" s="952"/>
-      <c r="G4" s="952"/>
-      <c r="H4" s="952"/>
+      <c r="D4" s="948"/>
+      <c r="E4" s="948"/>
+      <c r="F4" s="948"/>
+      <c r="G4" s="948"/>
+      <c r="H4" s="948"/>
     </row>
     <row r="5" spans="1:9" ht="19" customHeight="1" thickBot="1">
       <c r="D5" s="1"/>
@@ -36986,7 +36978,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="19" customHeight="1">
-      <c r="A6" s="1139" t="s">
+      <c r="A6" s="1140" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="175" t="s">
@@ -37001,21 +36993,21 @@
       <c r="E6" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="1141" t="s">
+      <c r="F6" s="1142" t="s">
         <v>190</v>
       </c>
       <c r="G6" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="1141" t="s">
+      <c r="H6" s="1142" t="s">
         <v>193</v>
       </c>
-      <c r="I6" s="1137" t="s">
+      <c r="I6" s="1138" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19" customHeight="1">
-      <c r="A7" s="1140"/>
+      <c r="A7" s="1141"/>
       <c r="B7" s="176" t="s">
         <v>5</v>
       </c>
@@ -37028,12 +37020,12 @@
       <c r="E7" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="F7" s="1142"/>
+      <c r="F7" s="1143"/>
       <c r="G7" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="1142"/>
-      <c r="I7" s="1138"/>
+      <c r="H7" s="1143"/>
+      <c r="I7" s="1139"/>
     </row>
     <row r="8" spans="1:9" ht="19" customHeight="1">
       <c r="A8" s="165">
@@ -37466,10 +37458,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="19" customHeight="1" thickBot="1">
-      <c r="A30" s="1143" t="s">
+      <c r="A30" s="1144" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1144"/>
+      <c r="B30" s="1145"/>
       <c r="C30" s="180">
         <f t="shared" ref="C30:I30" si="1">SUM(C8:C29)</f>
         <v>0</v>
@@ -37501,17 +37493,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -37553,12 +37545,12 @@
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="L1" s="57"/>
-      <c r="M1" s="945" t="s">
+      <c r="M1" s="959" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="945"/>
-      <c r="O1" s="945"/>
-      <c r="P1" s="945"/>
+      <c r="N1" s="959"/>
+      <c r="O1" s="959"/>
+      <c r="P1" s="959"/>
     </row>
     <row r="2" spans="1:16" ht="23.25" customHeight="1">
       <c r="A2" s="947" t="s">
@@ -37575,30 +37567,30 @@
       <c r="J2" s="222"/>
       <c r="K2" s="222"/>
       <c r="L2" s="57"/>
-      <c r="M2" s="1048" t="s">
+      <c r="M2" s="1054" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1048"/>
-      <c r="O2" s="1048"/>
-      <c r="P2" s="1048"/>
+      <c r="N2" s="1054"/>
+      <c r="O2" s="1054"/>
+      <c r="P2" s="1054"/>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1">
-      <c r="A3" s="1048" t="s">
+      <c r="A3" s="1054" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1048"/>
-      <c r="C3" s="1048"/>
-      <c r="D3" s="1048"/>
-      <c r="E3" s="1021" t="s">
+      <c r="B3" s="1054"/>
+      <c r="C3" s="1054"/>
+      <c r="D3" s="1054"/>
+      <c r="E3" s="1026" t="s">
         <v>522</v>
       </c>
-      <c r="F3" s="1021"/>
-      <c r="G3" s="1021"/>
-      <c r="H3" s="1021"/>
-      <c r="I3" s="1021"/>
-      <c r="J3" s="1021"/>
-      <c r="K3" s="1021"/>
-      <c r="L3" s="1021"/>
+      <c r="F3" s="1026"/>
+      <c r="G3" s="1026"/>
+      <c r="H3" s="1026"/>
+      <c r="I3" s="1026"/>
+      <c r="J3" s="1026"/>
+      <c r="K3" s="1026"/>
+      <c r="L3" s="1026"/>
       <c r="M3" s="978">
         <v>3</v>
       </c>
@@ -38435,12 +38427,12 @@
       <c r="M1" s="61"/>
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
-      <c r="P1" s="945" t="s">
+      <c r="P1" s="959" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="945"/>
-      <c r="R1" s="945"/>
-      <c r="S1" s="945"/>
+      <c r="Q1" s="959"/>
+      <c r="R1" s="959"/>
+      <c r="S1" s="959"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" customHeight="1">
       <c r="A2" s="947" t="s">
@@ -38456,33 +38448,33 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="P2" s="1048" t="s">
+      <c r="P2" s="1054" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="1048"/>
-      <c r="R2" s="1048"/>
-      <c r="S2" s="1048"/>
+      <c r="Q2" s="1054"/>
+      <c r="R2" s="1054"/>
+      <c r="S2" s="1054"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1">
-      <c r="A3" s="1145" t="s">
+      <c r="A3" s="1137" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1145"/>
-      <c r="C3" s="1145"/>
-      <c r="D3" s="1145"/>
-      <c r="E3" s="952" t="s">
+      <c r="B3" s="1137"/>
+      <c r="C3" s="1137"/>
+      <c r="D3" s="1137"/>
+      <c r="E3" s="948" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="952"/>
-      <c r="G3" s="952"/>
-      <c r="H3" s="952"/>
-      <c r="I3" s="952"/>
-      <c r="J3" s="952"/>
-      <c r="K3" s="952"/>
-      <c r="L3" s="952"/>
-      <c r="M3" s="952"/>
-      <c r="N3" s="952"/>
-      <c r="O3" s="952"/>
+      <c r="F3" s="948"/>
+      <c r="G3" s="948"/>
+      <c r="H3" s="948"/>
+      <c r="I3" s="948"/>
+      <c r="J3" s="948"/>
+      <c r="K3" s="948"/>
+      <c r="L3" s="948"/>
+      <c r="M3" s="948"/>
+      <c r="N3" s="948"/>
+      <c r="O3" s="948"/>
       <c r="P3" s="978">
         <v>3</v>
       </c>
@@ -39316,38 +39308,38 @@
     <row r="1" spans="1:24" ht="25" customHeight="1">
       <c r="L1" s="298"/>
       <c r="M1" s="298"/>
-      <c r="N1" s="991" t="s">
+      <c r="N1" s="1002" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="991"/>
-      <c r="P1" s="991"/>
-      <c r="Q1" s="991"/>
-      <c r="R1" s="991"/>
-      <c r="S1" s="991"/>
-      <c r="T1" s="991"/>
+      <c r="O1" s="1002"/>
+      <c r="P1" s="1002"/>
+      <c r="Q1" s="1002"/>
+      <c r="R1" s="1002"/>
+      <c r="S1" s="1002"/>
+      <c r="T1" s="1002"/>
       <c r="U1" s="256"/>
       <c r="V1" s="256"/>
       <c r="W1" s="256"/>
       <c r="X1" s="256"/>
     </row>
     <row r="2" spans="1:24" ht="25" customHeight="1">
-      <c r="A2" s="961" t="s">
+      <c r="A2" s="957" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="961"/>
-      <c r="C2" s="961"/>
-      <c r="D2" s="961"/>
+      <c r="B2" s="957"/>
+      <c r="C2" s="957"/>
+      <c r="D2" s="957"/>
       <c r="L2" s="299"/>
       <c r="M2" s="299"/>
-      <c r="N2" s="963" t="s">
+      <c r="N2" s="971" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="963"/>
-      <c r="P2" s="963"/>
-      <c r="Q2" s="963"/>
-      <c r="R2" s="963"/>
-      <c r="S2" s="963"/>
-      <c r="T2" s="963"/>
+      <c r="O2" s="971"/>
+      <c r="P2" s="971"/>
+      <c r="Q2" s="971"/>
+      <c r="R2" s="971"/>
+      <c r="S2" s="971"/>
+      <c r="T2" s="971"/>
       <c r="U2" s="300"/>
       <c r="V2" s="300"/>
       <c r="W2" s="300"/>
@@ -39369,15 +39361,15 @@
       <c r="K3" s="301"/>
       <c r="L3" s="301"/>
       <c r="M3" s="301"/>
-      <c r="N3" s="993">
+      <c r="N3" s="1004">
         <v>3</v>
       </c>
-      <c r="O3" s="993"/>
-      <c r="P3" s="993"/>
-      <c r="Q3" s="993"/>
-      <c r="R3" s="993"/>
-      <c r="S3" s="993"/>
-      <c r="T3" s="993"/>
+      <c r="O3" s="1004"/>
+      <c r="P3" s="1004"/>
+      <c r="Q3" s="1004"/>
+      <c r="R3" s="1004"/>
+      <c r="S3" s="1004"/>
+      <c r="T3" s="1004"/>
       <c r="U3" s="301"/>
       <c r="V3" s="301"/>
       <c r="W3" s="301"/>
@@ -39862,11 +39854,11 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="944" t="s">
+      <c r="J1" s="958" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="944"/>
-      <c r="L1" s="944"/>
+      <c r="K1" s="958"/>
+      <c r="L1" s="958"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="P1" s="246"/>
@@ -39874,32 +39866,32 @@
       <c r="R1" s="246"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A2" s="952" t="s">
+      <c r="A2" s="948" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="952"/>
-      <c r="C2" s="952"/>
-      <c r="E2" s="952" t="s">
+      <c r="B2" s="948"/>
+      <c r="C2" s="948"/>
+      <c r="E2" s="948" t="s">
         <v>525</v>
       </c>
-      <c r="F2" s="952"/>
-      <c r="G2" s="952"/>
-      <c r="H2" s="952"/>
+      <c r="F2" s="948"/>
+      <c r="G2" s="948"/>
+      <c r="H2" s="948"/>
       <c r="I2" s="52"/>
-      <c r="J2" s="946" t="s">
+      <c r="J2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="946"/>
-      <c r="L2" s="946"/>
+      <c r="K2" s="960"/>
+      <c r="L2" s="960"/>
       <c r="M2" s="244"/>
       <c r="N2" s="52"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
-      <c r="A3" s="1048" t="s">
+      <c r="A3" s="1054" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1048"/>
-      <c r="C3" s="1048"/>
+      <c r="B3" s="1054"/>
+      <c r="C3" s="1054"/>
       <c r="D3" s="608"/>
       <c r="E3" s="608"/>
       <c r="F3" s="57"/>
@@ -39924,27 +39916,27 @@
       <c r="D4" s="602"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A5" s="1164" t="s">
+      <c r="A5" s="1166" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1162" t="s">
+      <c r="B5" s="1164" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1166" t="s">
+      <c r="C5" s="1161" t="s">
         <v>469</v>
       </c>
-      <c r="D5" s="1166"/>
-      <c r="E5" s="1166"/>
-      <c r="F5" s="1166" t="s">
+      <c r="D5" s="1161"/>
+      <c r="E5" s="1161"/>
+      <c r="F5" s="1161" t="s">
         <v>470</v>
       </c>
-      <c r="G5" s="1166"/>
-      <c r="H5" s="1166"/>
-      <c r="I5" s="1166" t="s">
+      <c r="G5" s="1161"/>
+      <c r="H5" s="1161"/>
+      <c r="I5" s="1161" t="s">
         <v>474</v>
       </c>
-      <c r="J5" s="1166"/>
-      <c r="K5" s="1166"/>
+      <c r="J5" s="1161"/>
+      <c r="K5" s="1161"/>
       <c r="L5" s="1031" t="s">
         <v>12</v>
       </c>
@@ -39964,49 +39956,49 @@
       <c r="Z5" s="602"/>
     </row>
     <row r="6" spans="1:26" s="603" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="1165"/>
-      <c r="B6" s="1163"/>
-      <c r="C6" s="1161" t="s">
+      <c r="A6" s="1167"/>
+      <c r="B6" s="1165"/>
+      <c r="C6" s="1163" t="s">
         <v>444</v>
       </c>
-      <c r="D6" s="1167" t="s">
+      <c r="D6" s="1162" t="s">
         <v>471</v>
       </c>
-      <c r="E6" s="1167"/>
-      <c r="F6" s="1161" t="s">
+      <c r="E6" s="1162"/>
+      <c r="F6" s="1163" t="s">
         <v>444</v>
       </c>
-      <c r="G6" s="1167" t="s">
+      <c r="G6" s="1162" t="s">
         <v>471</v>
       </c>
-      <c r="H6" s="1167"/>
-      <c r="I6" s="1161" t="s">
+      <c r="H6" s="1162"/>
+      <c r="I6" s="1163" t="s">
         <v>444</v>
       </c>
-      <c r="J6" s="1167" t="s">
+      <c r="J6" s="1162" t="s">
         <v>471</v>
       </c>
-      <c r="K6" s="1167"/>
+      <c r="K6" s="1162"/>
       <c r="L6" s="1032"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="1165"/>
-      <c r="B7" s="1163"/>
-      <c r="C7" s="1161"/>
+      <c r="A7" s="1167"/>
+      <c r="B7" s="1165"/>
+      <c r="C7" s="1163"/>
       <c r="D7" s="606" t="s">
         <v>472</v>
       </c>
       <c r="E7" s="606" t="s">
         <v>473</v>
       </c>
-      <c r="F7" s="1161"/>
+      <c r="F7" s="1163"/>
       <c r="G7" s="606" t="s">
         <v>472</v>
       </c>
       <c r="H7" s="606" t="s">
         <v>473</v>
       </c>
-      <c r="I7" s="1161"/>
+      <c r="I7" s="1163"/>
       <c r="J7" s="606" t="s">
         <v>472</v>
       </c>
@@ -40467,12 +40459,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="L5:L7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="J3:L3"/>
@@ -40486,6 +40472,12 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="L5:L7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0" footer="0"/>
@@ -40521,46 +40513,46 @@
       <c r="C1" s="57"/>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
-      <c r="O1" s="944" t="s">
+      <c r="O1" s="958" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="944"/>
-      <c r="Q1" s="944"/>
-      <c r="R1" s="944"/>
+      <c r="P1" s="958"/>
+      <c r="Q1" s="958"/>
+      <c r="R1" s="958"/>
     </row>
     <row r="2" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A2" s="952" t="s">
+      <c r="A2" s="948" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="952"/>
-      <c r="C2" s="952"/>
-      <c r="D2" s="952"/>
-      <c r="E2" s="952"/>
-      <c r="G2" s="952" t="s">
+      <c r="B2" s="948"/>
+      <c r="C2" s="948"/>
+      <c r="D2" s="948"/>
+      <c r="E2" s="948"/>
+      <c r="G2" s="948" t="s">
         <v>526</v>
       </c>
-      <c r="H2" s="952"/>
-      <c r="I2" s="952"/>
-      <c r="J2" s="952"/>
-      <c r="K2" s="952"/>
-      <c r="L2" s="952"/>
-      <c r="M2" s="952"/>
-      <c r="N2" s="952"/>
-      <c r="O2" s="946" t="s">
+      <c r="H2" s="948"/>
+      <c r="I2" s="948"/>
+      <c r="J2" s="948"/>
+      <c r="K2" s="948"/>
+      <c r="L2" s="948"/>
+      <c r="M2" s="948"/>
+      <c r="N2" s="948"/>
+      <c r="O2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="946"/>
-      <c r="Q2" s="946"/>
-      <c r="R2" s="946"/>
+      <c r="P2" s="960"/>
+      <c r="Q2" s="960"/>
+      <c r="R2" s="960"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="1169" t="s">
+      <c r="A3" s="1173" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1169"/>
-      <c r="C3" s="1169"/>
-      <c r="D3" s="1169"/>
-      <c r="E3" s="1169"/>
+      <c r="B3" s="1173"/>
+      <c r="C3" s="1173"/>
+      <c r="D3" s="1173"/>
+      <c r="E3" s="1173"/>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
@@ -40570,12 +40562,12 @@
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
       <c r="N3" s="57"/>
-      <c r="O3" s="1170">
+      <c r="O3" s="1174">
         <v>3</v>
       </c>
-      <c r="P3" s="1170"/>
-      <c r="Q3" s="1170"/>
-      <c r="R3" s="1170"/>
+      <c r="P3" s="1174"/>
+      <c r="Q3" s="1174"/>
+      <c r="R3" s="1174"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="86"/>
@@ -40614,36 +40606,36 @@
       <c r="B5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1171" t="s">
+      <c r="C5" s="1169" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="1171"/>
-      <c r="E5" s="1171" t="s">
+      <c r="D5" s="1169"/>
+      <c r="E5" s="1169" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="1171"/>
+      <c r="F5" s="1169"/>
       <c r="G5" s="85" t="s">
         <v>249</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="1174" t="s">
+      <c r="I5" s="1172" t="s">
         <v>253</v>
       </c>
-      <c r="J5" s="1171"/>
-      <c r="K5" s="1171" t="s">
+      <c r="J5" s="1169"/>
+      <c r="K5" s="1169" t="s">
         <v>255</v>
       </c>
-      <c r="L5" s="1171"/>
-      <c r="M5" s="1171" t="s">
+      <c r="L5" s="1169"/>
+      <c r="M5" s="1169" t="s">
         <v>255</v>
       </c>
-      <c r="N5" s="1171"/>
-      <c r="O5" s="1171" t="s">
+      <c r="N5" s="1169"/>
+      <c r="O5" s="1169" t="s">
         <v>255</v>
       </c>
-      <c r="P5" s="1172"/>
+      <c r="P5" s="1170"/>
       <c r="Q5" s="76" t="s">
         <v>251</v>
       </c>
@@ -40654,36 +40646,36 @@
     <row r="6" spans="1:18" ht="16.5" customHeight="1">
       <c r="A6" s="89"/>
       <c r="B6" s="90"/>
-      <c r="C6" s="1173" t="s">
+      <c r="C6" s="1171" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="1173"/>
-      <c r="E6" s="1173" t="s">
+      <c r="D6" s="1171"/>
+      <c r="E6" s="1171" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="1173"/>
+      <c r="F6" s="1171"/>
       <c r="G6" s="82" t="s">
         <v>207</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="1173" t="s">
+      <c r="I6" s="1171" t="s">
         <v>254</v>
       </c>
-      <c r="J6" s="1173"/>
-      <c r="K6" s="1173" t="s">
+      <c r="J6" s="1171"/>
+      <c r="K6" s="1171" t="s">
         <v>256</v>
       </c>
-      <c r="L6" s="1173"/>
-      <c r="M6" s="1173" t="s">
+      <c r="L6" s="1171"/>
+      <c r="M6" s="1171" t="s">
         <v>257</v>
       </c>
-      <c r="N6" s="1173"/>
-      <c r="O6" s="1173" t="s">
+      <c r="N6" s="1171"/>
+      <c r="O6" s="1171" t="s">
         <v>258</v>
       </c>
-      <c r="P6" s="1173"/>
+      <c r="P6" s="1171"/>
       <c r="Q6" s="22" t="s">
         <v>245</v>
       </c>
@@ -41611,6 +41603,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="O6:P6"/>
@@ -41624,14 +41624,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -41667,30 +41659,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27">
-      <c r="H1" s="944" t="s">
+      <c r="H1" s="958" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="944"/>
-      <c r="J1" s="944"/>
+      <c r="I1" s="958"/>
+      <c r="J1" s="958"/>
       <c r="K1" s="246"/>
       <c r="L1" s="246"/>
     </row>
     <row r="2" spans="1:13" ht="33">
-      <c r="H2" s="946" t="s">
+      <c r="H2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="946"/>
-      <c r="J2" s="946"/>
+      <c r="I2" s="960"/>
+      <c r="J2" s="960"/>
       <c r="K2" s="244"/>
       <c r="L2" s="244"/>
     </row>
     <row r="3" spans="1:13" ht="25">
-      <c r="A3" s="952" t="s">
+      <c r="A3" s="948" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="952"/>
-      <c r="C3" s="952"/>
-      <c r="D3" s="952"/>
+      <c r="B3" s="948"/>
+      <c r="C3" s="948"/>
+      <c r="D3" s="948"/>
       <c r="E3" s="666"/>
       <c r="F3" s="666"/>
       <c r="G3" s="52"/>
@@ -41701,12 +41693,12 @@
       <c r="J3" s="1042"/>
     </row>
     <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="1048" t="s">
+      <c r="A4" s="1054" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1048"/>
-      <c r="C4" s="1048"/>
-      <c r="D4" s="1048"/>
+      <c r="B4" s="1054"/>
+      <c r="C4" s="1054"/>
+      <c r="D4" s="1054"/>
       <c r="E4" s="507"/>
       <c r="F4" s="507"/>
       <c r="G4" s="608"/>
@@ -41715,72 +41707,72 @@
       <c r="J4" s="667"/>
     </row>
     <row r="5" spans="1:13" ht="42.65" customHeight="1" thickBot="1">
-      <c r="A5" s="1175" t="s">
+      <c r="A5" s="1202" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="1175"/>
-      <c r="C5" s="1175"/>
-      <c r="D5" s="1175"/>
-      <c r="E5" s="1175"/>
-      <c r="F5" s="1175"/>
-      <c r="G5" s="1175"/>
-      <c r="H5" s="1175"/>
-      <c r="I5" s="1175"/>
-      <c r="J5" s="1175"/>
-      <c r="K5" s="1175"/>
+      <c r="B5" s="1202"/>
+      <c r="C5" s="1202"/>
+      <c r="D5" s="1202"/>
+      <c r="E5" s="1202"/>
+      <c r="F5" s="1202"/>
+      <c r="G5" s="1202"/>
+      <c r="H5" s="1202"/>
+      <c r="I5" s="1202"/>
+      <c r="J5" s="1202"/>
+      <c r="K5" s="1202"/>
     </row>
     <row r="6" spans="1:13" ht="27.65" customHeight="1">
-      <c r="A6" s="1177" t="s">
+      <c r="A6" s="1193" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1180" t="s">
+      <c r="B6" s="1196" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1183" t="s">
+      <c r="C6" s="1190" t="s">
         <v>529</v>
       </c>
-      <c r="D6" s="1186" t="s">
+      <c r="D6" s="1200" t="s">
         <v>530</v>
       </c>
-      <c r="E6" s="1187"/>
-      <c r="F6" s="1201" t="s">
+      <c r="E6" s="1201"/>
+      <c r="F6" s="1188" t="s">
         <v>531</v>
       </c>
-      <c r="G6" s="1202"/>
-      <c r="H6" s="1183" t="s">
+      <c r="G6" s="1189"/>
+      <c r="H6" s="1190" t="s">
         <v>532</v>
       </c>
-      <c r="I6" s="1188" t="s">
+      <c r="I6" s="1175" t="s">
         <v>533</v>
       </c>
-      <c r="J6" s="1191" t="s">
+      <c r="J6" s="1178" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="1194" t="s">
+      <c r="K6" s="1181" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="41.5" customHeight="1">
-      <c r="A7" s="1178"/>
-      <c r="B7" s="1181"/>
-      <c r="C7" s="1184"/>
-      <c r="D7" s="1197" t="s">
+      <c r="A7" s="1194"/>
+      <c r="B7" s="1197"/>
+      <c r="C7" s="1199"/>
+      <c r="D7" s="1184" t="s">
         <v>534</v>
       </c>
-      <c r="E7" s="1198"/>
-      <c r="F7" s="1199" t="s">
+      <c r="E7" s="1185"/>
+      <c r="F7" s="1186" t="s">
         <v>534</v>
       </c>
-      <c r="G7" s="1200"/>
-      <c r="H7" s="1185"/>
-      <c r="I7" s="1189"/>
-      <c r="J7" s="1192"/>
-      <c r="K7" s="1195"/>
+      <c r="G7" s="1187"/>
+      <c r="H7" s="1191"/>
+      <c r="I7" s="1176"/>
+      <c r="J7" s="1179"/>
+      <c r="K7" s="1182"/>
     </row>
     <row r="8" spans="1:13" ht="45.65" customHeight="1">
-      <c r="A8" s="1179"/>
-      <c r="B8" s="1182"/>
-      <c r="C8" s="1185"/>
+      <c r="A8" s="1195"/>
+      <c r="B8" s="1198"/>
+      <c r="C8" s="1191"/>
       <c r="D8" s="668" t="s">
         <v>536</v>
       </c>
@@ -41796,9 +41788,9 @@
       <c r="H8" s="668" t="s">
         <v>540</v>
       </c>
-      <c r="I8" s="1190"/>
-      <c r="J8" s="1193"/>
-      <c r="K8" s="1196"/>
+      <c r="I8" s="1177"/>
+      <c r="J8" s="1180"/>
+      <c r="K8" s="1183"/>
     </row>
     <row r="9" spans="1:13" ht="30">
       <c r="A9" s="669">
@@ -41895,10 +41887,10 @@
       <c r="K12" s="610"/>
     </row>
     <row r="13" spans="1:13" ht="23.5" thickBot="1">
-      <c r="A13" s="1176" t="s">
+      <c r="A13" s="1192" t="s">
         <v>535</v>
       </c>
-      <c r="B13" s="1125"/>
+      <c r="B13" s="1127"/>
       <c r="C13" s="678">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -41935,6 +41927,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
@@ -41942,17 +41945,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.25" footer="0.25"/>
@@ -41991,19 +41983,19 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="945" t="s">
+      <c r="J1" s="959" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="945"/>
-      <c r="L1" s="945"/>
+      <c r="K1" s="959"/>
+      <c r="L1" s="959"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="952" t="s">
+      <c r="A2" s="948" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="952"/>
-      <c r="C2" s="952"/>
-      <c r="D2" s="952"/>
+      <c r="B2" s="948"/>
+      <c r="C2" s="948"/>
+      <c r="D2" s="948"/>
       <c r="E2" s="31"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -42022,13 +42014,13 @@
       <c r="B3" s="1208"/>
       <c r="C3" s="1208"/>
       <c r="D3" s="1208"/>
-      <c r="E3" s="952" t="s">
+      <c r="E3" s="948" t="s">
         <v>413</v>
       </c>
-      <c r="F3" s="952"/>
-      <c r="G3" s="952"/>
-      <c r="H3" s="952"/>
-      <c r="I3" s="952"/>
+      <c r="F3" s="948"/>
+      <c r="G3" s="948"/>
+      <c r="H3" s="948"/>
+      <c r="I3" s="948"/>
       <c r="J3" s="978">
         <v>3</v>
       </c>
@@ -42810,38 +42802,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22" customHeight="1">
-      <c r="K1" s="944" t="s">
+      <c r="K1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="944"/>
-      <c r="M1" s="944"/>
-      <c r="N1" s="944"/>
+      <c r="L1" s="958"/>
+      <c r="M1" s="958"/>
+      <c r="N1" s="958"/>
     </row>
     <row r="2" spans="1:14" ht="22" customHeight="1">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="959" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="945"/>
-      <c r="C2" s="945"/>
+      <c r="B2" s="959"/>
+      <c r="C2" s="959"/>
       <c r="D2" s="490"/>
       <c r="E2" s="490"/>
       <c r="F2" s="490"/>
       <c r="G2" s="490"/>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
-      <c r="K2" s="946" t="s">
+      <c r="K2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="946"/>
-      <c r="M2" s="946"/>
-      <c r="N2" s="946"/>
+      <c r="L2" s="960"/>
+      <c r="M2" s="960"/>
+      <c r="N2" s="960"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1">
-      <c r="A3" s="946" t="s">
+      <c r="A3" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="946"/>
-      <c r="C3" s="946"/>
+      <c r="B3" s="960"/>
+      <c r="C3" s="960"/>
       <c r="D3" s="244"/>
       <c r="E3" s="244"/>
       <c r="F3" s="244"/>
@@ -42914,10 +42906,10 @@
       <c r="K6" s="1214" t="s">
         <v>397</v>
       </c>
-      <c r="L6" s="1060" t="s">
+      <c r="L6" s="1057" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="1076"/>
+      <c r="M6" s="1075"/>
       <c r="N6" s="1216" t="s">
         <v>252</v>
       </c>
@@ -43741,12 +43733,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="K3:N3"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
@@ -43756,6 +43742,12 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0.25" footer="0.25"/>
@@ -43814,11 +43806,11 @@
       <c r="M1" s="61"/>
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
-      <c r="P1" s="944" t="s">
+      <c r="P1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="944"/>
-      <c r="R1" s="944"/>
+      <c r="Q1" s="958"/>
+      <c r="R1" s="958"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:23" ht="23.25" customHeight="1">
@@ -43870,26 +43862,26 @@
       <c r="R3" s="978"/>
     </row>
     <row r="4" spans="1:23" ht="21" customHeight="1">
-      <c r="A4" s="952" t="s">
+      <c r="A4" s="948" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="952"/>
-      <c r="C4" s="952"/>
-      <c r="D4" s="952"/>
-      <c r="E4" s="952"/>
-      <c r="F4" s="952"/>
-      <c r="G4" s="952"/>
-      <c r="H4" s="952"/>
-      <c r="I4" s="952"/>
-      <c r="J4" s="952"/>
-      <c r="K4" s="952"/>
-      <c r="L4" s="952"/>
-      <c r="M4" s="952"/>
-      <c r="N4" s="952"/>
-      <c r="O4" s="952"/>
-      <c r="P4" s="952"/>
-      <c r="Q4" s="952"/>
-      <c r="R4" s="952"/>
+      <c r="B4" s="948"/>
+      <c r="C4" s="948"/>
+      <c r="D4" s="948"/>
+      <c r="E4" s="948"/>
+      <c r="F4" s="948"/>
+      <c r="G4" s="948"/>
+      <c r="H4" s="948"/>
+      <c r="I4" s="948"/>
+      <c r="J4" s="948"/>
+      <c r="K4" s="948"/>
+      <c r="L4" s="948"/>
+      <c r="M4" s="948"/>
+      <c r="N4" s="948"/>
+      <c r="O4" s="948"/>
+      <c r="P4" s="948"/>
+      <c r="Q4" s="948"/>
+      <c r="R4" s="948"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="16"/>
@@ -45481,38 +45473,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22" customHeight="1">
-      <c r="K1" s="944" t="s">
+      <c r="K1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="944"/>
-      <c r="M1" s="944"/>
-      <c r="N1" s="944"/>
+      <c r="L1" s="958"/>
+      <c r="M1" s="958"/>
+      <c r="N1" s="958"/>
     </row>
     <row r="2" spans="1:14" ht="22" customHeight="1">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="959" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="945"/>
-      <c r="C2" s="945"/>
+      <c r="B2" s="959"/>
+      <c r="C2" s="959"/>
       <c r="D2" s="490"/>
       <c r="E2" s="490"/>
       <c r="F2" s="490"/>
       <c r="G2" s="490"/>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
-      <c r="K2" s="946" t="s">
+      <c r="K2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="946"/>
-      <c r="M2" s="946"/>
-      <c r="N2" s="946"/>
+      <c r="L2" s="960"/>
+      <c r="M2" s="960"/>
+      <c r="N2" s="960"/>
     </row>
     <row r="3" spans="1:14" ht="22" customHeight="1">
-      <c r="A3" s="946" t="s">
+      <c r="A3" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="946"/>
-      <c r="C3" s="946"/>
+      <c r="B3" s="960"/>
+      <c r="C3" s="960"/>
       <c r="D3" s="244"/>
       <c r="E3" s="244"/>
       <c r="F3" s="244"/>
@@ -45585,10 +45577,10 @@
       <c r="K6" s="1214" t="s">
         <v>397</v>
       </c>
-      <c r="L6" s="1060" t="s">
+      <c r="L6" s="1057" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="1076"/>
+      <c r="M6" s="1075"/>
       <c r="N6" s="1216" t="s">
         <v>252</v>
       </c>
@@ -46322,42 +46314,42 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="21" customHeight="1">
-      <c r="A30" s="1222" t="s">
+      <c r="A30" s="1228" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="1224" t="s">
+      <c r="B30" s="1230" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1226" t="s">
+      <c r="C30" s="1232" t="s">
         <v>393</v>
       </c>
-      <c r="D30" s="1227"/>
-      <c r="E30" s="1226" t="s">
+      <c r="D30" s="1233"/>
+      <c r="E30" s="1232" t="s">
         <v>394</v>
       </c>
-      <c r="F30" s="1227"/>
-      <c r="G30" s="1228" t="s">
+      <c r="F30" s="1233"/>
+      <c r="G30" s="1234" t="s">
         <v>395</v>
       </c>
-      <c r="H30" s="1229"/>
-      <c r="I30" s="1228" t="s">
+      <c r="H30" s="1235"/>
+      <c r="I30" s="1234" t="s">
         <v>396</v>
       </c>
-      <c r="J30" s="1229"/>
-      <c r="K30" s="1230" t="s">
+      <c r="J30" s="1235"/>
+      <c r="K30" s="1220" t="s">
         <v>397</v>
       </c>
-      <c r="L30" s="1232" t="s">
+      <c r="L30" s="1222" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="1233"/>
-      <c r="N30" s="1234" t="s">
+      <c r="M30" s="1223"/>
+      <c r="N30" s="1224" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="21" customHeight="1">
-      <c r="A31" s="1223"/>
-      <c r="B31" s="1225"/>
+      <c r="A31" s="1229"/>
+      <c r="B31" s="1231"/>
       <c r="C31" s="648" t="s">
         <v>13</v>
       </c>
@@ -46382,14 +46374,14 @@
       <c r="J31" s="648" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="1231"/>
+      <c r="K31" s="1221"/>
       <c r="L31" s="649" t="s">
         <v>13</v>
       </c>
       <c r="M31" s="650" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="1235"/>
+      <c r="N31" s="1225"/>
     </row>
     <row r="32" spans="1:14" ht="21.65" customHeight="1">
       <c r="A32" s="651" t="s">
@@ -47173,10 +47165,10 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="21.65" customHeight="1" thickBot="1">
-      <c r="A58" s="1220" t="s">
+      <c r="A58" s="1226" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="1221"/>
+      <c r="B58" s="1227"/>
       <c r="C58" s="579">
         <f>C8+C32</f>
         <v>0</v>
@@ -47228,18 +47220,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
@@ -47253,6 +47233,18 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0.25" footer="0.25"/>
@@ -47278,46 +47270,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" customHeight="1">
-      <c r="J1" s="944" t="s">
+      <c r="J1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="944"/>
-      <c r="L1" s="944"/>
-      <c r="M1" s="944"/>
-      <c r="N1" s="944"/>
+      <c r="K1" s="958"/>
+      <c r="L1" s="958"/>
+      <c r="M1" s="958"/>
+      <c r="N1" s="958"/>
       <c r="O1" s="246"/>
       <c r="P1" s="246"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="959" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="945"/>
-      <c r="C2" s="945"/>
-      <c r="D2" s="945"/>
-      <c r="E2" s="945"/>
+      <c r="B2" s="959"/>
+      <c r="C2" s="959"/>
+      <c r="D2" s="959"/>
+      <c r="E2" s="959"/>
       <c r="F2" s="490"/>
       <c r="G2" s="490"/>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="946" t="s">
+      <c r="J2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="946"/>
-      <c r="L2" s="946"/>
-      <c r="M2" s="946"/>
-      <c r="N2" s="946"/>
+      <c r="K2" s="960"/>
+      <c r="L2" s="960"/>
+      <c r="M2" s="960"/>
+      <c r="N2" s="960"/>
       <c r="O2" s="244"/>
       <c r="P2" s="244"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A3" s="946" t="s">
+      <c r="A3" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="946"/>
-      <c r="C3" s="946"/>
-      <c r="D3" s="946"/>
-      <c r="E3" s="946"/>
+      <c r="B3" s="960"/>
+      <c r="C3" s="960"/>
+      <c r="D3" s="960"/>
+      <c r="E3" s="960"/>
       <c r="F3" s="244"/>
       <c r="G3" s="244"/>
       <c r="H3" s="2"/>
@@ -48426,6 +48418,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="J3:N3"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A32:B32"/>
@@ -48436,12 +48434,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="J3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0.25" footer="0.25"/>
@@ -48479,26 +48471,26 @@
       <c r="D1" s="986"/>
       <c r="E1" s="986"/>
       <c r="F1" s="100"/>
-      <c r="G1" s="944" t="s">
+      <c r="G1" s="958" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="944"/>
-      <c r="I1" s="944"/>
+      <c r="H1" s="958"/>
+      <c r="I1" s="958"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="959" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="945"/>
+      <c r="B2" s="959"/>
       <c r="C2" s="100"/>
       <c r="D2" s="987"/>
       <c r="E2" s="987"/>
       <c r="F2" s="100"/>
-      <c r="G2" s="946" t="s">
+      <c r="G2" s="960" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="946"/>
-      <c r="I2" s="946"/>
+      <c r="H2" s="960"/>
+      <c r="I2" s="960"/>
     </row>
     <row r="3" spans="1:10" ht="25" customHeight="1">
       <c r="A3" s="947" t="s">
@@ -48511,11 +48503,11 @@
       <c r="D3" s="947"/>
       <c r="E3" s="947"/>
       <c r="F3" s="947"/>
-      <c r="G3" s="948">
+      <c r="G3" s="961">
         <v>3</v>
       </c>
-      <c r="H3" s="948"/>
-      <c r="I3" s="948"/>
+      <c r="H3" s="961"/>
+      <c r="I3" s="961"/>
     </row>
     <row r="4" spans="1:10" ht="11.25" customHeight="1" thickBot="1">
       <c r="A4" s="100"/>
@@ -48529,13 +48521,13 @@
       <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
-      <c r="A5" s="955" t="s">
+      <c r="A5" s="951" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="957" t="s">
+      <c r="B5" s="953" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="957" t="s">
+      <c r="C5" s="953" t="s">
         <v>290</v>
       </c>
       <c r="D5" s="199" t="s">
@@ -48547,18 +48539,18 @@
       <c r="F5" s="199" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="959" t="s">
+      <c r="G5" s="955" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="960"/>
-      <c r="I5" s="949" t="s">
+      <c r="H5" s="956"/>
+      <c r="I5" s="944" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="956"/>
-      <c r="B6" s="958"/>
-      <c r="C6" s="958"/>
+      <c r="A6" s="952"/>
+      <c r="B6" s="954"/>
+      <c r="C6" s="954"/>
       <c r="D6" s="202" t="s">
         <v>293</v>
       </c>
@@ -48574,7 +48566,7 @@
       <c r="H6" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="950"/>
+      <c r="I6" s="945"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="102" t="s">
@@ -49497,18 +49489,18 @@
       <c r="C45" s="100"/>
       <c r="D45" s="100"/>
       <c r="E45" s="100"/>
-      <c r="F45" s="951" t="s">
+      <c r="F45" s="946" t="s">
         <v>450</v>
       </c>
-      <c r="G45" s="951"/>
-      <c r="H45" s="951"/>
-      <c r="I45" s="951"/>
+      <c r="G45" s="946"/>
+      <c r="H45" s="946"/>
+      <c r="I45" s="946"/>
     </row>
     <row r="46" spans="1:9" ht="23.15" customHeight="1">
-      <c r="A46" s="952" t="s">
+      <c r="A46" s="948" t="s">
         <v>337</v>
       </c>
-      <c r="B46" s="952"/>
+      <c r="B46" s="948"/>
       <c r="D46" s="947" t="s">
         <v>430</v>
       </c>
@@ -49521,10 +49513,10 @@
       <c r="I46" s="99"/>
     </row>
     <row r="47" spans="1:9" ht="23.15" customHeight="1">
-      <c r="A47" s="952" t="s">
+      <c r="A47" s="948" t="s">
         <v>339</v>
       </c>
-      <c r="B47" s="952"/>
+      <c r="B47" s="948"/>
       <c r="D47" s="947" t="s">
         <v>426</v>
       </c>
@@ -49535,10 +49527,10 @@
       <c r="I47" s="99"/>
     </row>
     <row r="48" spans="1:9" ht="23.15" customHeight="1">
-      <c r="A48" s="952" t="s">
+      <c r="A48" s="948" t="s">
         <v>341</v>
       </c>
-      <c r="B48" s="952"/>
+      <c r="B48" s="948"/>
       <c r="D48" s="947" t="s">
         <v>425</v>
       </c>
@@ -49559,6 +49551,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="A46:B46"/>
@@ -49567,19 +49572,6 @@
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.25" footer="0.25"/>
@@ -49730,43 +49722,43 @@
       <c r="D1" s="878"/>
       <c r="E1" s="707"/>
       <c r="F1" s="706"/>
-      <c r="G1" s="991" t="s">
+      <c r="G1" s="1002" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="991"/>
-      <c r="I1" s="991"/>
+      <c r="H1" s="1002"/>
+      <c r="I1" s="1002"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A2" s="961" t="s">
+      <c r="A2" s="957" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="961"/>
+      <c r="B2" s="957"/>
       <c r="C2" s="706"/>
       <c r="D2" s="706"/>
       <c r="E2" s="707"/>
       <c r="F2" s="706"/>
-      <c r="G2" s="963" t="s">
+      <c r="G2" s="971" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="963"/>
-      <c r="I2" s="963"/>
+      <c r="H2" s="971"/>
+      <c r="I2" s="971"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A3" s="961" t="s">
+      <c r="A3" s="957" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="961"/>
-      <c r="C3" s="992" t="s">
+      <c r="B3" s="957"/>
+      <c r="C3" s="1003" t="s">
         <v>593</v>
       </c>
-      <c r="D3" s="992"/>
-      <c r="E3" s="992"/>
-      <c r="F3" s="992"/>
-      <c r="G3" s="993">
+      <c r="D3" s="1003"/>
+      <c r="E3" s="1003"/>
+      <c r="F3" s="1003"/>
+      <c r="G3" s="1004">
         <v>3</v>
       </c>
-      <c r="H3" s="993"/>
-      <c r="I3" s="993"/>
+      <c r="H3" s="1004"/>
+      <c r="I3" s="1004"/>
     </row>
     <row r="4" spans="1:9" ht="4.5" customHeight="1" thickBot="1">
       <c r="A4" s="708"/>
@@ -49780,48 +49772,48 @@
       <c r="I4" s="708"/>
     </row>
     <row r="5" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A5" s="997" t="s">
+      <c r="A5" s="994" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="999" t="s">
+      <c r="B5" s="996" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="999" t="s">
+      <c r="C5" s="996" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="1001" t="s">
+      <c r="D5" s="998" t="s">
         <v>594</v>
       </c>
       <c r="E5" s="710" t="s">
         <v>595</v>
       </c>
-      <c r="F5" s="1001" t="s">
+      <c r="F5" s="998" t="s">
         <v>596</v>
       </c>
-      <c r="G5" s="1003" t="s">
+      <c r="G5" s="1000" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1004"/>
-      <c r="I5" s="994" t="s">
+      <c r="H5" s="1001"/>
+      <c r="I5" s="991" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="998"/>
-      <c r="B6" s="1000"/>
-      <c r="C6" s="1000"/>
-      <c r="D6" s="1002"/>
+      <c r="A6" s="995"/>
+      <c r="B6" s="997"/>
+      <c r="C6" s="997"/>
+      <c r="D6" s="999"/>
       <c r="E6" s="711" t="s">
         <v>597</v>
       </c>
-      <c r="F6" s="1002"/>
+      <c r="F6" s="999"/>
       <c r="G6" s="712" t="s">
         <v>294</v>
       </c>
       <c r="H6" s="712" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="995"/>
+      <c r="I6" s="992"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
       <c r="A7" s="713" t="s">
@@ -50678,12 +50670,12 @@
       <c r="C42" s="746"/>
       <c r="D42" s="747"/>
       <c r="E42" s="748"/>
-      <c r="F42" s="996" t="s">
+      <c r="F42" s="993" t="s">
         <v>611</v>
       </c>
-      <c r="G42" s="996"/>
-      <c r="H42" s="996"/>
-      <c r="I42" s="996"/>
+      <c r="G42" s="993"/>
+      <c r="H42" s="993"/>
+      <c r="I42" s="993"/>
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1">
       <c r="A43" s="744"/>
@@ -50691,35 +50683,35 @@
       <c r="C43" s="744"/>
       <c r="D43" s="744"/>
       <c r="E43" s="748"/>
-      <c r="F43" s="996" t="s">
+      <c r="F43" s="993" t="s">
         <v>612</v>
       </c>
-      <c r="G43" s="996"/>
-      <c r="H43" s="996"/>
-      <c r="I43" s="996"/>
+      <c r="G43" s="993"/>
+      <c r="H43" s="993"/>
+      <c r="I43" s="993"/>
     </row>
     <row r="44" spans="1:9" ht="24.65" customHeight="1">
-      <c r="A44" s="961" t="s">
+      <c r="A44" s="957" t="s">
         <v>337</v>
       </c>
-      <c r="B44" s="961"/>
-      <c r="C44" s="961" t="s">
+      <c r="B44" s="957"/>
+      <c r="C44" s="957" t="s">
         <v>430</v>
       </c>
-      <c r="D44" s="961"/>
-      <c r="E44" s="961"/>
+      <c r="D44" s="957"/>
+      <c r="E44" s="957"/>
       <c r="F44" s="750"/>
-      <c r="G44" s="961" t="s">
+      <c r="G44" s="957" t="s">
         <v>613</v>
       </c>
-      <c r="H44" s="961"/>
+      <c r="H44" s="957"/>
       <c r="I44" s="750"/>
     </row>
     <row r="45" spans="1:9" ht="24" customHeight="1">
-      <c r="A45" s="961" t="s">
+      <c r="A45" s="957" t="s">
         <v>614</v>
       </c>
-      <c r="B45" s="961"/>
+      <c r="B45" s="957"/>
       <c r="C45" s="750" t="s">
         <v>426</v>
       </c>
@@ -50731,10 +50723,10 @@
       <c r="I45" s="750"/>
     </row>
     <row r="46" spans="1:9" ht="26.5" customHeight="1">
-      <c r="A46" s="961" t="s">
+      <c r="A46" s="957" t="s">
         <v>615</v>
       </c>
-      <c r="B46" s="961"/>
+      <c r="B46" s="957"/>
       <c r="C46" s="751" t="s">
         <v>616</v>
       </c>
@@ -50790,6 +50782,12 @@
     <row r="51" spans="1:9" ht="22" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="I5:I6"/>
@@ -50804,12 +50802,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
